--- a/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.77746134282759</v>
+        <v>18.77746134282751</v>
       </c>
       <c r="C2">
-        <v>12.71241413862546</v>
+        <v>12.71241413862566</v>
       </c>
       <c r="D2">
-        <v>3.645459400152534</v>
+        <v>3.645459400152472</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.78846476248763</v>
+        <v>35.78846476248761</v>
       </c>
       <c r="G2">
-        <v>27.91079697089952</v>
+        <v>27.91079697089951</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30.00106631564123</v>
+        <v>30.00106631564117</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.49946438375214</v>
+        <v>17.49946438375219</v>
       </c>
       <c r="C3">
-        <v>11.96544871834799</v>
+        <v>11.96544871834788</v>
       </c>
       <c r="D3">
-        <v>3.680664360754164</v>
+        <v>3.680664360754059</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.76437667311386</v>
+        <v>33.76437667311394</v>
       </c>
       <c r="G3">
-        <v>26.46821059045843</v>
+        <v>26.46821059045848</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.6538646859431</v>
+        <v>27.65386468594309</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.67319876050678</v>
+        <v>16.67319876050674</v>
       </c>
       <c r="C4">
-        <v>11.48440592757076</v>
+        <v>11.48440592757063</v>
       </c>
       <c r="D4">
-        <v>3.703954839933817</v>
+        <v>3.70395483993369</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.50278410556984</v>
+        <v>32.50278410556971</v>
       </c>
       <c r="G4">
-        <v>25.57620452003336</v>
+        <v>25.57620452003327</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.16757291662354</v>
+        <v>26.16757291662356</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.32590761918269</v>
+        <v>16.32590761918264</v>
       </c>
       <c r="C5">
-        <v>11.28274472805945</v>
+        <v>11.28274472805954</v>
       </c>
       <c r="D5">
-        <v>3.713824770087206</v>
+        <v>3.713824770087085</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.98420978247369</v>
+        <v>31.98420978247376</v>
       </c>
       <c r="G5">
-        <v>25.21132202928371</v>
+        <v>25.21132202928376</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.54948404051177</v>
+        <v>25.54948404051175</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.26759754331282</v>
+        <v>16.26759754331277</v>
       </c>
       <c r="C6">
-        <v>11.248919189495</v>
+        <v>11.24891918949516</v>
       </c>
       <c r="D6">
-        <v>3.715485435004914</v>
+        <v>3.715485435004753</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.89784165209905</v>
+        <v>31.89784165209913</v>
       </c>
       <c r="G6">
-        <v>25.1506574284796</v>
+        <v>25.15065742847967</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.44607276293929</v>
+        <v>25.44607276293932</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.66855807655345</v>
+        <v>16.66855807655358</v>
       </c>
       <c r="C7">
-        <v>11.4817090469841</v>
+        <v>11.48170904698421</v>
       </c>
       <c r="D7">
-        <v>3.70408646630703</v>
+        <v>3.704086466307097</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.4958080594922</v>
+        <v>32.49580805949208</v>
       </c>
       <c r="G7">
-        <v>25.57128886578228</v>
+        <v>25.57128886578219</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.34535595498458</v>
+        <v>18.34535595498452</v>
       </c>
       <c r="C8">
-        <v>12.45950627484351</v>
+        <v>12.45950627484345</v>
       </c>
       <c r="D8">
-        <v>3.657222991383994</v>
+        <v>3.657222991383863</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.09457037433126</v>
+        <v>35.09457037433134</v>
       </c>
       <c r="G8">
-        <v>27.41477336737548</v>
+        <v>27.41477336737554</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.20041255814583</v>
+        <v>29.20041255814581</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.30996720033989</v>
+        <v>21.30996720033994</v>
       </c>
       <c r="C9">
-        <v>14.19987778585718</v>
+        <v>14.199877785857</v>
       </c>
       <c r="D9">
-        <v>3.580926367796298</v>
+        <v>3.580926367796315</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.03837665666558</v>
+        <v>40.03837665666543</v>
       </c>
       <c r="G9">
-        <v>30.97763840996378</v>
+        <v>30.97763840996365</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.86550617060404</v>
+        <v>34.86550617060421</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.30018279038659</v>
+        <v>23.30018279038653</v>
       </c>
       <c r="C10">
-        <v>15.37217507327028</v>
+        <v>15.37217507327011</v>
       </c>
       <c r="D10">
-        <v>3.538445826400741</v>
+        <v>3.538445826400941</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.58665360621499</v>
+        <v>43.58665360621497</v>
       </c>
       <c r="G10">
-        <v>33.56975843600687</v>
+        <v>33.5697584360069</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>38.95296726946108</v>
+        <v>38.95296726946123</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.16701811653437</v>
+        <v>24.16701811653449</v>
       </c>
       <c r="C11">
-        <v>15.88278324445297</v>
+        <v>15.88278324445288</v>
       </c>
       <c r="D11">
-        <v>3.523300910601121</v>
+        <v>3.523300910601196</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>45.18889530416706</v>
       </c>
       <c r="G11">
-        <v>34.74811642851392</v>
+        <v>34.7481164285139</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.83098883968256</v>
+        <v>40.83098883968267</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.4899199076202</v>
+        <v>24.48991990762027</v>
       </c>
       <c r="C12">
-        <v>16.0728936431673</v>
+        <v>16.07289364316729</v>
       </c>
       <c r="D12">
-        <v>3.518304984780011</v>
+        <v>3.518304984779962</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.82434622484138</v>
+        <v>45.82434622484166</v>
       </c>
       <c r="G12">
-        <v>35.19488888135253</v>
+        <v>35.19488888135273</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.54902698190487</v>
+        <v>41.54902698190492</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,19 +833,19 @@
         <v>24.42061210471724</v>
       </c>
       <c r="C13">
-        <v>16.03209438041674</v>
+        <v>16.03209438041658</v>
       </c>
       <c r="D13">
-        <v>3.519345471907332</v>
+        <v>3.519345471907405</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.68510659560975</v>
+        <v>45.68510659560963</v>
       </c>
       <c r="G13">
-        <v>35.09862998130105</v>
+        <v>35.09862998130096</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.39399549127927</v>
+        <v>41.39399549127939</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>24.19368955940055</v>
       </c>
       <c r="C14">
-        <v>15.89848880095498</v>
+        <v>15.89848880095509</v>
       </c>
       <c r="D14">
-        <v>3.522874156052731</v>
+        <v>3.522874156052649</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.23875362265404</v>
+        <v>45.23875362265402</v>
       </c>
       <c r="G14">
-        <v>34.78485669052412</v>
+        <v>34.78485669052409</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.8898950562946</v>
+        <v>40.88989505629461</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.05400194136017</v>
+        <v>24.05400194136014</v>
       </c>
       <c r="C15">
-        <v>15.81622883301808</v>
+        <v>15.81622883301821</v>
       </c>
       <c r="D15">
-        <v>3.525136557449784</v>
+        <v>3.525136557449908</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.97800273248368</v>
+        <v>44.97800273248378</v>
       </c>
       <c r="G15">
-        <v>34.59275841354879</v>
+        <v>34.59275841354888</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.58216406771387</v>
+        <v>40.58216406771382</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.2427739557481</v>
+        <v>23.24277395574818</v>
       </c>
       <c r="C16">
-        <v>15.3383511221039</v>
+        <v>15.33835112210392</v>
       </c>
       <c r="D16">
-        <v>3.539530694225069</v>
+        <v>3.539530694225112</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.4817713140049</v>
+        <v>43.48177131400487</v>
       </c>
       <c r="G16">
-        <v>33.49278470512682</v>
+        <v>33.49278470512679</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.83093521000423</v>
+        <v>38.83093521000419</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.73537798326559</v>
+        <v>22.73537798326551</v>
       </c>
       <c r="C17">
-        <v>15.03939787281964</v>
+        <v>15.03939787281973</v>
       </c>
       <c r="D17">
-        <v>3.549519134990237</v>
+        <v>3.54951913499021</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.56135618295227</v>
+        <v>42.56135618295228</v>
       </c>
       <c r="G17">
-        <v>32.81817195066746</v>
+        <v>32.81817195066748</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.76394197414744</v>
+        <v>37.7639419741474</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.43989928977792</v>
+        <v>22.439899289778</v>
       </c>
       <c r="C18">
-        <v>14.86531335945455</v>
+        <v>14.86531335945451</v>
       </c>
       <c r="D18">
-        <v>3.555647601179769</v>
+        <v>3.555647601179786</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.03076834874604</v>
+        <v>42.03076834874616</v>
       </c>
       <c r="G18">
-        <v>32.43002194857431</v>
+        <v>32.43002194857442</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.1516709392221</v>
+        <v>37.15167093922205</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.33922478256046</v>
+        <v>22.33922478256049</v>
       </c>
       <c r="C19">
-        <v>14.80600393658947</v>
+        <v>14.80600393658954</v>
       </c>
       <c r="D19">
-        <v>3.557784788797001</v>
+        <v>3.557784788797012</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.85089488980341</v>
+        <v>41.85089488980366</v>
       </c>
       <c r="G19">
-        <v>32.29856253852984</v>
+        <v>32.29856253853001</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36.94450728421378</v>
+        <v>36.9445072842139</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.78976630872662</v>
+        <v>22.78976630872653</v>
       </c>
       <c r="C20">
-        <v>15.07144269063044</v>
+        <v>15.07144269063051</v>
       </c>
       <c r="D20">
-        <v>3.548415281528566</v>
+        <v>3.548415281528638</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.65945378241705</v>
+        <v>42.6594537824172</v>
       </c>
       <c r="G20">
-        <v>32.88999516363017</v>
+        <v>32.88999516363027</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.87735078210858</v>
+        <v>37.87735078210853</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.26048587325769</v>
+        <v>24.26048587325768</v>
       </c>
       <c r="C21">
-        <v>15.93782010096771</v>
+        <v>15.93782010096762</v>
       </c>
       <c r="D21">
-        <v>3.521816350943248</v>
+        <v>3.521816350943322</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.36419372525428</v>
+        <v>45.36419372525417</v>
       </c>
       <c r="G21">
-        <v>34.87699769243126</v>
+        <v>34.87699769243117</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.19059178898133</v>
+        <v>25.19059178898113</v>
       </c>
       <c r="C22">
-        <v>16.48511133317317</v>
+        <v>16.48511133317303</v>
       </c>
       <c r="D22">
-        <v>3.508834233164214</v>
+        <v>3.508834233164208</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.24379507598614</v>
+        <v>47.24379507598576</v>
       </c>
       <c r="G22">
-        <v>36.23674401208967</v>
+        <v>36.23674401208934</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.14649432515893</v>
+        <v>43.14649432515878</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.69695855809363</v>
+        <v>24.69695855809378</v>
       </c>
       <c r="C23">
-        <v>16.19474762533856</v>
+        <v>16.1947476253386</v>
       </c>
       <c r="D23">
-        <v>3.515304243115365</v>
+        <v>3.515304243115417</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.24151951867727</v>
+        <v>46.24151951867749</v>
       </c>
       <c r="G23">
-        <v>35.48363035470107</v>
+        <v>35.48363035470118</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.01522433019152</v>
+        <v>42.01522433019159</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.76518910381473</v>
+        <v>22.76518910381481</v>
       </c>
       <c r="C24">
-        <v>15.05696212093645</v>
+        <v>15.05696212093659</v>
       </c>
       <c r="D24">
-        <v>3.548913141348367</v>
+        <v>3.548913141348394</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.61510836962962</v>
+        <v>42.61510836962969</v>
       </c>
       <c r="G24">
-        <v>32.85752488913988</v>
+        <v>32.85752488913993</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.82607534848007</v>
+        <v>37.82607534848</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.54167502020299</v>
+        <v>20.541675020203</v>
       </c>
       <c r="C25">
-        <v>13.74787771564889</v>
+        <v>13.747877715649</v>
       </c>
       <c r="D25">
-        <v>3.599529890915802</v>
+        <v>3.599529890915901</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.71703126587792</v>
+        <v>38.71703126587781</v>
       </c>
       <c r="G25">
-        <v>30.01924949622068</v>
+        <v>30.0192494962206</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.35542475518741</v>
+        <v>33.35542475518731</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.77746134282751</v>
+        <v>18.77746134282759</v>
       </c>
       <c r="C2">
-        <v>12.71241413862566</v>
+        <v>12.71241413862546</v>
       </c>
       <c r="D2">
-        <v>3.645459400152472</v>
+        <v>3.645459400152534</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.78846476248761</v>
+        <v>35.78846476248763</v>
       </c>
       <c r="G2">
-        <v>27.91079697089951</v>
+        <v>27.91079697089952</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30.00106631564117</v>
+        <v>30.00106631564123</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.49946438375219</v>
+        <v>17.49946438375214</v>
       </c>
       <c r="C3">
-        <v>11.96544871834788</v>
+        <v>11.96544871834799</v>
       </c>
       <c r="D3">
-        <v>3.680664360754059</v>
+        <v>3.680664360754164</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.76437667311394</v>
+        <v>33.76437667311386</v>
       </c>
       <c r="G3">
-        <v>26.46821059045848</v>
+        <v>26.46821059045843</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.65386468594309</v>
+        <v>27.6538646859431</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.67319876050674</v>
+        <v>16.67319876050678</v>
       </c>
       <c r="C4">
-        <v>11.48440592757063</v>
+        <v>11.48440592757076</v>
       </c>
       <c r="D4">
-        <v>3.70395483993369</v>
+        <v>3.703954839933817</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.50278410556971</v>
+        <v>32.50278410556984</v>
       </c>
       <c r="G4">
-        <v>25.57620452003327</v>
+        <v>25.57620452003336</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.16757291662356</v>
+        <v>26.16757291662354</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.32590761918264</v>
+        <v>16.32590761918269</v>
       </c>
       <c r="C5">
-        <v>11.28274472805954</v>
+        <v>11.28274472805945</v>
       </c>
       <c r="D5">
-        <v>3.713824770087085</v>
+        <v>3.713824770087206</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.98420978247376</v>
+        <v>31.98420978247369</v>
       </c>
       <c r="G5">
-        <v>25.21132202928376</v>
+        <v>25.21132202928371</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.54948404051175</v>
+        <v>25.54948404051177</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.26759754331277</v>
+        <v>16.26759754331282</v>
       </c>
       <c r="C6">
-        <v>11.24891918949516</v>
+        <v>11.248919189495</v>
       </c>
       <c r="D6">
-        <v>3.715485435004753</v>
+        <v>3.715485435004914</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.89784165209913</v>
+        <v>31.89784165209905</v>
       </c>
       <c r="G6">
-        <v>25.15065742847967</v>
+        <v>25.1506574284796</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.44607276293932</v>
+        <v>25.44607276293929</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.66855807655358</v>
+        <v>16.66855807655345</v>
       </c>
       <c r="C7">
-        <v>11.48170904698421</v>
+        <v>11.4817090469841</v>
       </c>
       <c r="D7">
-        <v>3.704086466307097</v>
+        <v>3.70408646630703</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.49580805949208</v>
+        <v>32.4958080594922</v>
       </c>
       <c r="G7">
-        <v>25.57128886578219</v>
+        <v>25.57128886578228</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.34535595498452</v>
+        <v>18.34535595498458</v>
       </c>
       <c r="C8">
-        <v>12.45950627484345</v>
+        <v>12.45950627484351</v>
       </c>
       <c r="D8">
-        <v>3.657222991383863</v>
+        <v>3.657222991383994</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.09457037433134</v>
+        <v>35.09457037433126</v>
       </c>
       <c r="G8">
-        <v>27.41477336737554</v>
+        <v>27.41477336737548</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.20041255814581</v>
+        <v>29.20041255814583</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.30996720033994</v>
+        <v>21.30996720033989</v>
       </c>
       <c r="C9">
-        <v>14.199877785857</v>
+        <v>14.19987778585718</v>
       </c>
       <c r="D9">
-        <v>3.580926367796315</v>
+        <v>3.580926367796298</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.03837665666543</v>
+        <v>40.03837665666558</v>
       </c>
       <c r="G9">
-        <v>30.97763840996365</v>
+        <v>30.97763840996378</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.86550617060421</v>
+        <v>34.86550617060404</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.30018279038653</v>
+        <v>23.30018279038659</v>
       </c>
       <c r="C10">
-        <v>15.37217507327011</v>
+        <v>15.37217507327028</v>
       </c>
       <c r="D10">
-        <v>3.538445826400941</v>
+        <v>3.538445826400741</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.58665360621497</v>
+        <v>43.58665360621499</v>
       </c>
       <c r="G10">
-        <v>33.5697584360069</v>
+        <v>33.56975843600687</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>38.95296726946123</v>
+        <v>38.95296726946108</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.16701811653449</v>
+        <v>24.16701811653437</v>
       </c>
       <c r="C11">
-        <v>15.88278324445288</v>
+        <v>15.88278324445297</v>
       </c>
       <c r="D11">
-        <v>3.523300910601196</v>
+        <v>3.523300910601121</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>45.18889530416706</v>
       </c>
       <c r="G11">
-        <v>34.7481164285139</v>
+        <v>34.74811642851392</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.83098883968267</v>
+        <v>40.83098883968256</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.48991990762027</v>
+        <v>24.4899199076202</v>
       </c>
       <c r="C12">
-        <v>16.07289364316729</v>
+        <v>16.0728936431673</v>
       </c>
       <c r="D12">
-        <v>3.518304984779962</v>
+        <v>3.518304984780011</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.82434622484166</v>
+        <v>45.82434622484138</v>
       </c>
       <c r="G12">
-        <v>35.19488888135273</v>
+        <v>35.19488888135253</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.54902698190492</v>
+        <v>41.54902698190487</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,19 +833,19 @@
         <v>24.42061210471724</v>
       </c>
       <c r="C13">
-        <v>16.03209438041658</v>
+        <v>16.03209438041674</v>
       </c>
       <c r="D13">
-        <v>3.519345471907405</v>
+        <v>3.519345471907332</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.68510659560963</v>
+        <v>45.68510659560975</v>
       </c>
       <c r="G13">
-        <v>35.09862998130096</v>
+        <v>35.09862998130105</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.39399549127939</v>
+        <v>41.39399549127927</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>24.19368955940055</v>
       </c>
       <c r="C14">
-        <v>15.89848880095509</v>
+        <v>15.89848880095498</v>
       </c>
       <c r="D14">
-        <v>3.522874156052649</v>
+        <v>3.522874156052731</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.23875362265402</v>
+        <v>45.23875362265404</v>
       </c>
       <c r="G14">
-        <v>34.78485669052409</v>
+        <v>34.78485669052412</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.88989505629461</v>
+        <v>40.8898950562946</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.05400194136014</v>
+        <v>24.05400194136017</v>
       </c>
       <c r="C15">
-        <v>15.81622883301821</v>
+        <v>15.81622883301808</v>
       </c>
       <c r="D15">
-        <v>3.525136557449908</v>
+        <v>3.525136557449784</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.97800273248378</v>
+        <v>44.97800273248368</v>
       </c>
       <c r="G15">
-        <v>34.59275841354888</v>
+        <v>34.59275841354879</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.58216406771382</v>
+        <v>40.58216406771387</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.24277395574818</v>
+        <v>23.2427739557481</v>
       </c>
       <c r="C16">
-        <v>15.33835112210392</v>
+        <v>15.3383511221039</v>
       </c>
       <c r="D16">
-        <v>3.539530694225112</v>
+        <v>3.539530694225069</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.48177131400487</v>
+        <v>43.4817713140049</v>
       </c>
       <c r="G16">
-        <v>33.49278470512679</v>
+        <v>33.49278470512682</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.83093521000419</v>
+        <v>38.83093521000423</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.73537798326551</v>
+        <v>22.73537798326559</v>
       </c>
       <c r="C17">
-        <v>15.03939787281973</v>
+        <v>15.03939787281964</v>
       </c>
       <c r="D17">
-        <v>3.54951913499021</v>
+        <v>3.549519134990237</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.56135618295228</v>
+        <v>42.56135618295227</v>
       </c>
       <c r="G17">
-        <v>32.81817195066748</v>
+        <v>32.81817195066746</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.7639419741474</v>
+        <v>37.76394197414744</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.439899289778</v>
+        <v>22.43989928977792</v>
       </c>
       <c r="C18">
-        <v>14.86531335945451</v>
+        <v>14.86531335945455</v>
       </c>
       <c r="D18">
-        <v>3.555647601179786</v>
+        <v>3.555647601179769</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.03076834874616</v>
+        <v>42.03076834874604</v>
       </c>
       <c r="G18">
-        <v>32.43002194857442</v>
+        <v>32.43002194857431</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.15167093922205</v>
+        <v>37.1516709392221</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.33922478256049</v>
+        <v>22.33922478256046</v>
       </c>
       <c r="C19">
-        <v>14.80600393658954</v>
+        <v>14.80600393658947</v>
       </c>
       <c r="D19">
-        <v>3.557784788797012</v>
+        <v>3.557784788797001</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.85089488980366</v>
+        <v>41.85089488980341</v>
       </c>
       <c r="G19">
-        <v>32.29856253853001</v>
+        <v>32.29856253852984</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36.9445072842139</v>
+        <v>36.94450728421378</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.78976630872653</v>
+        <v>22.78976630872662</v>
       </c>
       <c r="C20">
-        <v>15.07144269063051</v>
+        <v>15.07144269063044</v>
       </c>
       <c r="D20">
-        <v>3.548415281528638</v>
+        <v>3.548415281528566</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.6594537824172</v>
+        <v>42.65945378241705</v>
       </c>
       <c r="G20">
-        <v>32.88999516363027</v>
+        <v>32.88999516363017</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.87735078210853</v>
+        <v>37.87735078210858</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.26048587325768</v>
+        <v>24.26048587325769</v>
       </c>
       <c r="C21">
-        <v>15.93782010096762</v>
+        <v>15.93782010096771</v>
       </c>
       <c r="D21">
-        <v>3.521816350943322</v>
+        <v>3.521816350943248</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.36419372525417</v>
+        <v>45.36419372525428</v>
       </c>
       <c r="G21">
-        <v>34.87699769243117</v>
+        <v>34.87699769243126</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.19059178898113</v>
+        <v>25.19059178898133</v>
       </c>
       <c r="C22">
-        <v>16.48511133317303</v>
+        <v>16.48511133317317</v>
       </c>
       <c r="D22">
-        <v>3.508834233164208</v>
+        <v>3.508834233164214</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.24379507598576</v>
+        <v>47.24379507598614</v>
       </c>
       <c r="G22">
-        <v>36.23674401208934</v>
+        <v>36.23674401208967</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.14649432515878</v>
+        <v>43.14649432515893</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.69695855809378</v>
+        <v>24.69695855809363</v>
       </c>
       <c r="C23">
-        <v>16.1947476253386</v>
+        <v>16.19474762533856</v>
       </c>
       <c r="D23">
-        <v>3.515304243115417</v>
+        <v>3.515304243115365</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.24151951867749</v>
+        <v>46.24151951867727</v>
       </c>
       <c r="G23">
-        <v>35.48363035470118</v>
+        <v>35.48363035470107</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.01522433019159</v>
+        <v>42.01522433019152</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.76518910381481</v>
+        <v>22.76518910381473</v>
       </c>
       <c r="C24">
-        <v>15.05696212093659</v>
+        <v>15.05696212093645</v>
       </c>
       <c r="D24">
-        <v>3.548913141348394</v>
+        <v>3.548913141348367</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.61510836962969</v>
+        <v>42.61510836962962</v>
       </c>
       <c r="G24">
-        <v>32.85752488913993</v>
+        <v>32.85752488913988</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.82607534848</v>
+        <v>37.82607534848007</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.541675020203</v>
+        <v>20.54167502020299</v>
       </c>
       <c r="C25">
-        <v>13.747877715649</v>
+        <v>13.74787771564889</v>
       </c>
       <c r="D25">
-        <v>3.599529890915901</v>
+        <v>3.599529890915802</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.71703126587781</v>
+        <v>38.71703126587792</v>
       </c>
       <c r="G25">
-        <v>30.0192494962206</v>
+        <v>30.01924949622068</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.35542475518731</v>
+        <v>33.35542475518741</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.77746134282759</v>
+        <v>18.77638800694766</v>
       </c>
       <c r="C2">
-        <v>12.71241413862546</v>
+        <v>12.71099796244577</v>
       </c>
       <c r="D2">
-        <v>3.645459400152534</v>
+        <v>3.640475724112215</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.78846476248763</v>
+        <v>35.75217911299544</v>
       </c>
       <c r="G2">
-        <v>27.91079697089952</v>
+        <v>27.05715535118467</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>27.94623272737274</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,33 +445,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30.00106631564123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>30.00078834230661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.49946438375214</v>
+        <v>17.49868747945625</v>
       </c>
       <c r="C3">
-        <v>11.96544871834799</v>
+        <v>11.9643959878594</v>
       </c>
       <c r="D3">
-        <v>3.680664360754164</v>
+        <v>3.676152298652278</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.76437667311386</v>
+        <v>33.73064217681267</v>
       </c>
       <c r="G3">
-        <v>26.46821059045843</v>
+        <v>25.39239987501876</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.50211916899082</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,33 +486,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.6538646859431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.653684621364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.67319876050678</v>
+        <v>16.67260151369778</v>
       </c>
       <c r="C4">
-        <v>11.48440592757076</v>
+        <v>11.48358215355535</v>
       </c>
       <c r="D4">
-        <v>3.703954839933817</v>
+        <v>3.699718827691122</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.50278410556984</v>
+        <v>32.47068206793404</v>
       </c>
       <c r="G4">
-        <v>25.57620452003336</v>
+        <v>24.34882724540256</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>25.60920773435991</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,33 +527,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.16757291662354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>26.16744425947423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.32590761918269</v>
+        <v>16.3253833330513</v>
       </c>
       <c r="C5">
-        <v>11.28274472805945</v>
+        <v>11.28201609423935</v>
       </c>
       <c r="D5">
-        <v>3.713824770087206</v>
+        <v>3.709698283262699</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.98420978247369</v>
+        <v>31.9527900952935</v>
       </c>
       <c r="G5">
-        <v>25.21132202928371</v>
+        <v>23.91831521543624</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>25.24396517014711</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,33 +568,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.54948404051177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.54937457667553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.26759754331282</v>
+        <v>16.26708536674137</v>
       </c>
       <c r="C6">
-        <v>11.248919189495</v>
+        <v>11.24820647577106</v>
       </c>
       <c r="D6">
-        <v>3.715485435004914</v>
+        <v>3.711376967696109</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.89784165209905</v>
+        <v>31.86653631294202</v>
       </c>
       <c r="G6">
-        <v>25.1506574284796</v>
+        <v>23.84651837512383</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>25.18324133805864</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,33 +609,36 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.44607276293929</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.44596639096474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.66855807655345</v>
+        <v>16.66796181429635</v>
       </c>
       <c r="C7">
-        <v>11.4817090469841</v>
+        <v>11.48088654811736</v>
       </c>
       <c r="D7">
-        <v>3.70408646630703</v>
+        <v>3.699851942624947</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.4958080594922</v>
+        <v>32.46371515447481</v>
       </c>
       <c r="G7">
-        <v>25.57128886578228</v>
+        <v>24.34304219019265</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.60428718709048</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,33 +650,36 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.15928871606231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>26.15916032436658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.34535595498458</v>
+        <v>18.34438552780236</v>
       </c>
       <c r="C8">
-        <v>12.45950627484351</v>
+        <v>12.45821444131068</v>
       </c>
       <c r="D8">
-        <v>3.657222991383994</v>
+        <v>3.652405004685237</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.09457037433126</v>
+        <v>35.05915102170891</v>
       </c>
       <c r="G8">
-        <v>27.41477336737548</v>
+        <v>26.48763309743767</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27.44967626382233</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,33 +691,36 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.20041255814583</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>29.200170447042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.30996720033989</v>
+        <v>21.30822775956402</v>
       </c>
       <c r="C9">
-        <v>14.19987778585718</v>
+        <v>14.19769407758896</v>
       </c>
       <c r="D9">
-        <v>3.580926367796298</v>
+        <v>3.574835785434194</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.03837665666558</v>
+        <v>39.99692448296071</v>
       </c>
       <c r="G9">
-        <v>30.97763840996378</v>
+        <v>30.5241783896657</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>31.01650463003529</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,33 +732,36 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.86550617060404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>34.86494494529224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.30018279038659</v>
+        <v>23.29783063180978</v>
       </c>
       <c r="C10">
-        <v>15.37217507327028</v>
+        <v>15.36932752827947</v>
       </c>
       <c r="D10">
-        <v>3.538445826400741</v>
+        <v>3.531310017130661</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.58665360621499</v>
+        <v>43.54100331611406</v>
       </c>
       <c r="G10">
-        <v>33.56975843600687</v>
+        <v>33.39873536167647</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>33.61164599377864</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,33 +773,36 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>38.95296726946108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>38.95205639846582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.16701811653437</v>
+        <v>24.16436973834022</v>
       </c>
       <c r="C11">
-        <v>15.88278324445297</v>
+        <v>15.87962533042996</v>
       </c>
       <c r="D11">
-        <v>3.523300910601121</v>
+        <v>3.515657732318225</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.18889530416706</v>
+        <v>45.14136524851729</v>
       </c>
       <c r="G11">
-        <v>34.74811642851392</v>
+        <v>34.69273011771354</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>34.79139835677492</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,33 +814,36 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.83098883968256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>40.82987180345447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.4899199076202</v>
+        <v>24.48715610729771</v>
       </c>
       <c r="C12">
-        <v>16.0728936431673</v>
+        <v>16.06961636016664</v>
       </c>
       <c r="D12">
-        <v>3.518304984780011</v>
+        <v>3.510464340724209</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.82434622484138</v>
+        <v>45.77562997477032</v>
       </c>
       <c r="G12">
-        <v>35.19488888135253</v>
+        <v>35.18156960929657</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>35.23870152711838</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,33 +855,36 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.54902698190487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>41.54782197843767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.42061210471724</v>
+        <v>24.41787332049085</v>
       </c>
       <c r="C13">
-        <v>16.03209438041674</v>
+        <v>16.02884289855475</v>
       </c>
       <c r="D13">
-        <v>3.519345471907332</v>
+        <v>3.511547606083678</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.68510659560975</v>
+        <v>45.63654029247143</v>
       </c>
       <c r="G13">
-        <v>35.09862998130105</v>
+        <v>35.07632529945018</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>35.1423282089392</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,33 +896,36 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.39399549127927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>41.39280994100748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.19368955940055</v>
+        <v>24.19103175524087</v>
       </c>
       <c r="C14">
-        <v>15.89848880095498</v>
+        <v>15.89532110719491</v>
       </c>
       <c r="D14">
-        <v>3.522874156052731</v>
+        <v>3.515214843766838</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.23875362265404</v>
+        <v>45.1911651401684</v>
       </c>
       <c r="G14">
-        <v>34.78485669052412</v>
+        <v>34.73296501834266</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>34.82818222767982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,33 +937,36 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.8898950562946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>40.88877100502964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.05400194136017</v>
+        <v>24.05139329221633</v>
       </c>
       <c r="C15">
-        <v>15.81622883301808</v>
+        <v>15.81311220200313</v>
       </c>
       <c r="D15">
-        <v>3.525136557449784</v>
+        <v>3.517561394214006</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.97800273248368</v>
+        <v>44.93071984184389</v>
       </c>
       <c r="G15">
-        <v>34.59275841354879</v>
+        <v>34.52252348223032</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>34.63585601559361</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,33 +978,36 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.58216406771387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>40.58107627753622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.2427739557481</v>
+        <v>23.24044074427368</v>
       </c>
       <c r="C16">
-        <v>15.3383511221039</v>
+        <v>15.33552363968096</v>
       </c>
       <c r="D16">
-        <v>3.539530694225069</v>
+        <v>3.532427339126404</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.4817713140049</v>
+        <v>43.43624428531228</v>
       </c>
       <c r="G16">
-        <v>33.49278470512682</v>
+        <v>33.31395647623589</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>33.53458152176593</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,33 +1019,36 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.83093521000423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>38.83003663116481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.73537798326559</v>
+        <v>22.73320878466372</v>
       </c>
       <c r="C17">
-        <v>15.03939787281964</v>
+        <v>15.0367452035536</v>
       </c>
       <c r="D17">
-        <v>3.549519134990237</v>
+        <v>3.54269654724895</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.56135618295227</v>
+        <v>42.51691250273159</v>
       </c>
       <c r="G17">
-        <v>32.81817195066746</v>
+        <v>32.5695212145449</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>32.85917572863767</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,33 +1060,36 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.76394197414744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>37.76314562078754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.43989928977792</v>
+        <v>22.43782283207385</v>
       </c>
       <c r="C18">
-        <v>14.86531335945455</v>
+        <v>14.86276049149906</v>
       </c>
       <c r="D18">
-        <v>3.555647601179769</v>
+        <v>3.548983551467481</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.03076834874604</v>
+        <v>41.98695078072561</v>
       </c>
       <c r="G18">
-        <v>32.43002194857431</v>
+        <v>32.13999414276189</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>32.4705714716227</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,33 +1101,36 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.1516709392221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>37.15092919943107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.33922478256046</v>
+        <v>22.33717947151172</v>
       </c>
       <c r="C19">
-        <v>14.80600393658947</v>
+        <v>14.80348474923059</v>
       </c>
       <c r="D19">
-        <v>3.557784788797001</v>
+        <v>3.551173931641532</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.85089488980341</v>
+        <v>41.80728988969405</v>
       </c>
       <c r="G19">
-        <v>32.29856253852984</v>
+        <v>31.99431249241825</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32.33895858866606</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,33 +1142,36 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36.94450728421378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>36.94378338933282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.78976630872662</v>
+        <v>22.78757982061626</v>
       </c>
       <c r="C20">
-        <v>15.07144269063044</v>
+        <v>15.06877149376714</v>
       </c>
       <c r="D20">
-        <v>3.548415281528566</v>
+        <v>3.541563116256193</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.65945378241705</v>
+        <v>42.61489448267545</v>
       </c>
       <c r="G20">
-        <v>32.88999516363017</v>
+        <v>32.64890223455262</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>32.93108316895729</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,33 +1183,36 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.87735078210858</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>37.87654399761147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.26048587325769</v>
+        <v>24.25780437810097</v>
       </c>
       <c r="C21">
-        <v>15.93782010096771</v>
+        <v>15.93462785203826</v>
       </c>
       <c r="D21">
-        <v>3.521816350943248</v>
+        <v>3.514116493459809</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.36419372525428</v>
+        <v>45.31603306993951</v>
       </c>
       <c r="G21">
-        <v>34.87699769243126</v>
+        <v>34.83384212261981</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>34.92043262531362</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,33 +1224,36 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>41.03773402469202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>41.03659221131291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.19059178898133</v>
+        <v>25.18756737589553</v>
       </c>
       <c r="C22">
-        <v>16.48511133317317</v>
+        <v>16.48156746173019</v>
       </c>
       <c r="D22">
-        <v>3.508834233164214</v>
+        <v>3.500548820153697</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.24379507598614</v>
+        <v>47.1935459025967</v>
       </c>
       <c r="G22">
-        <v>36.23674401208967</v>
+        <v>36.28288040150869</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>36.25562581928548</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,33 +1265,36 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.14649432515893</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>43.14507300444077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.69695855809363</v>
+        <v>24.69411922614017</v>
       </c>
       <c r="C23">
-        <v>16.19474762533856</v>
+        <v>16.19139267058981</v>
       </c>
       <c r="D23">
-        <v>3.515304243115365</v>
+        <v>3.507334516753926</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.24151951867727</v>
+        <v>46.19235359640079</v>
       </c>
       <c r="G23">
-        <v>35.48363035470107</v>
+        <v>35.50051039039067</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>35.52778641849201</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,33 +1306,36 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.01522433019152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>42.01395924518223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.76518910381473</v>
+        <v>22.76301043707285</v>
       </c>
       <c r="C24">
-        <v>15.05696212093645</v>
+        <v>15.05429930253717</v>
       </c>
       <c r="D24">
-        <v>3.548913141348367</v>
+        <v>3.542074356989621</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.61510836962962</v>
+        <v>42.57060133108441</v>
       </c>
       <c r="G24">
-        <v>32.85752488913988</v>
+        <v>32.61301893211302</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>32.89857481005181</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,33 +1347,36 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.82607534848007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37.82527329263854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.54167502020299</v>
+        <v>20.54014988684265</v>
       </c>
       <c r="C25">
-        <v>13.74787771564889</v>
+        <v>13.74593478055225</v>
       </c>
       <c r="D25">
-        <v>3.599529890915802</v>
+        <v>3.593800459589365</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.71703126587792</v>
+        <v>38.67716428396639</v>
       </c>
       <c r="G25">
-        <v>30.01924949622068</v>
+        <v>29.4496078329859</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>30.05702257698293</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.35542475518741</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>33.3549647432621</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.77638800694766</v>
+        <v>24.61875011627195</v>
       </c>
       <c r="C2">
-        <v>12.71099796244577</v>
+        <v>17.93639337228895</v>
       </c>
       <c r="D2">
-        <v>3.640475724112215</v>
+        <v>5.725205311837873</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.75217911299544</v>
+        <v>38.99291918236347</v>
       </c>
       <c r="G2">
-        <v>27.05715535118467</v>
+        <v>2.073757796985973</v>
       </c>
       <c r="H2">
-        <v>27.94623272737274</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.306456054226247</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,39 +454,45 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.00078834230661</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>27.2544496182759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.49868747945625</v>
+        <v>22.86354164244798</v>
       </c>
       <c r="C3">
-        <v>11.9643959878594</v>
+        <v>16.66829223629958</v>
       </c>
       <c r="D3">
-        <v>3.676152298652278</v>
+        <v>5.467188736157893</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.73064217681267</v>
+        <v>37.29845934081239</v>
       </c>
       <c r="G3">
-        <v>25.39239987501876</v>
+        <v>2.08576513079173</v>
       </c>
       <c r="H3">
-        <v>26.50211916899082</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.025623304888505</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,39 +501,45 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.653684621364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>26.23484351464244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.67260151369778</v>
+        <v>21.73147254810592</v>
       </c>
       <c r="C4">
-        <v>11.48358215355535</v>
+        <v>15.84983301941853</v>
       </c>
       <c r="D4">
-        <v>3.699718827691122</v>
+        <v>5.305097532959651</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.47068206793404</v>
+        <v>36.27452444696585</v>
       </c>
       <c r="G4">
-        <v>24.34882724540256</v>
+        <v>2.093274886795376</v>
       </c>
       <c r="H4">
-        <v>25.60920773435991</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.856412146409044</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,39 +548,45 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.16744425947423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>25.62891023895126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.3253833330513</v>
+        <v>21.2562535317</v>
       </c>
       <c r="C5">
-        <v>11.28201609423935</v>
+        <v>15.50610282844151</v>
       </c>
       <c r="D5">
-        <v>3.709698283262699</v>
+        <v>5.238194793517224</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.9527900952935</v>
+        <v>35.86163954424079</v>
       </c>
       <c r="G5">
-        <v>23.91831521543624</v>
+        <v>2.096373266380691</v>
       </c>
       <c r="H5">
-        <v>25.24396517014711</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.78829913680571</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,39 +595,45 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.54937457667553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>25.38707516051275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.26708536674137</v>
+        <v>21.17649870099673</v>
       </c>
       <c r="C6">
-        <v>11.24820647577106</v>
+        <v>15.44840542537134</v>
       </c>
       <c r="D6">
-        <v>3.711376967696109</v>
+        <v>5.22703676541599</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.86653631294202</v>
+        <v>35.79335278091214</v>
       </c>
       <c r="G6">
-        <v>23.84651837512383</v>
+        <v>2.09689014966502</v>
       </c>
       <c r="H6">
-        <v>25.18324133805864</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.777040949494015</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,39 +642,45 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.44596639096474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>25.34722715953029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.66796181429635</v>
+        <v>21.7251201022442</v>
       </c>
       <c r="C7">
-        <v>11.48088654811736</v>
+        <v>15.84523889270079</v>
       </c>
       <c r="D7">
-        <v>3.699851942624947</v>
+        <v>5.3041985908147</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.46371515447481</v>
+        <v>36.26893805638144</v>
       </c>
       <c r="G7">
-        <v>24.34304219019265</v>
+        <v>2.09331651387091</v>
       </c>
       <c r="H7">
-        <v>25.60428718709048</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.855490093894109</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,39 +689,45 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.15916032436658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>25.62562811198392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.34438552780236</v>
+        <v>24.02469707333434</v>
       </c>
       <c r="C8">
-        <v>12.45821444131068</v>
+        <v>17.50730638462479</v>
       </c>
       <c r="D8">
-        <v>3.652405004685237</v>
+        <v>5.637041906723591</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.05915102170891</v>
+        <v>38.4053695562956</v>
       </c>
       <c r="G8">
-        <v>26.48763309743767</v>
+        <v>2.077871716734367</v>
       </c>
       <c r="H8">
-        <v>27.44967626382233</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.208972715932882</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,39 +736,45 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.200170447042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>26.89872678703483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.30822775956402</v>
+        <v>28.11405784976751</v>
       </c>
       <c r="C9">
-        <v>14.19769407758896</v>
+        <v>20.45953304292332</v>
       </c>
       <c r="D9">
-        <v>3.574835785434194</v>
+        <v>6.258175935107202</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>39.99692448296071</v>
+        <v>42.7197848692719</v>
       </c>
       <c r="G9">
-        <v>30.5241783896657</v>
+        <v>2.048491556156927</v>
       </c>
       <c r="H9">
-        <v>31.01650463003529</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.926889820673187</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,39 +783,45 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.86494494529224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>29.55532500977761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.29783063180978</v>
+        <v>30.88017641425818</v>
       </c>
       <c r="C10">
-        <v>15.36932752827947</v>
+        <v>22.45529618605555</v>
       </c>
       <c r="D10">
-        <v>3.531310017130661</v>
+        <v>6.6930173892953</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.54100331611406</v>
+        <v>45.96641742951579</v>
       </c>
       <c r="G10">
-        <v>33.39873536167647</v>
+        <v>2.027170402446266</v>
       </c>
       <c r="H10">
-        <v>33.61164599377864</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.469483616250313</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,39 +830,45 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.95205639846582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>31.60967672682817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.16436973834022</v>
+        <v>32.09142999564523</v>
       </c>
       <c r="C11">
-        <v>15.87962533042996</v>
+        <v>23.32918502007041</v>
       </c>
       <c r="D11">
-        <v>3.515657732318225</v>
+        <v>6.885981579623465</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.14136524851729</v>
+        <v>47.46308272285189</v>
       </c>
       <c r="G11">
-        <v>34.69273011771354</v>
+        <v>2.017451968002149</v>
       </c>
       <c r="H11">
-        <v>34.79139835677492</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.720030352591587</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,39 +877,45 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.82987180345447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>32.56918481163438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.48715610729771</v>
+        <v>32.54378047311777</v>
       </c>
       <c r="C12">
-        <v>16.06961636016664</v>
+        <v>23.65556128468956</v>
       </c>
       <c r="D12">
-        <v>3.510464340724209</v>
+        <v>6.958358081012365</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.77562997477032</v>
+        <v>48.03314200871719</v>
       </c>
       <c r="G12">
-        <v>35.18156960929657</v>
+        <v>2.013761530742776</v>
       </c>
       <c r="H12">
-        <v>35.23870152711838</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.815508099874485</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,39 +924,45 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.54782197843767</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>32.93647349163177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.41787332049085</v>
+        <v>32.44663225246053</v>
       </c>
       <c r="C13">
-        <v>16.02884289855475</v>
+        <v>23.5854665483465</v>
       </c>
       <c r="D13">
-        <v>3.511547606083678</v>
+        <v>6.942801218885725</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.63654029247143</v>
+        <v>47.91021303783753</v>
       </c>
       <c r="G13">
-        <v>35.07632529945018</v>
+        <v>2.014556921697485</v>
       </c>
       <c r="H13">
-        <v>35.1423282089392</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.794917135569033</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,39 +971,45 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.39280994100748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>32.85718888364354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.19103175524087</v>
+        <v>32.12876913359352</v>
       </c>
       <c r="C14">
-        <v>15.89532110719491</v>
+        <v>23.35612517653983</v>
       </c>
       <c r="D14">
-        <v>3.515214843766838</v>
+        <v>6.891949899160123</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.1911651401684</v>
+        <v>47.50991224598864</v>
       </c>
       <c r="G14">
-        <v>34.73296501834266</v>
+        <v>2.0171486066524</v>
       </c>
       <c r="H14">
-        <v>34.82818222767982</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.7278728269263</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,39 +1018,45 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.88877100502964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>32.59932034858926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.05139329221633</v>
+        <v>31.93325935067006</v>
       </c>
       <c r="C15">
-        <v>15.81311220200313</v>
+        <v>23.2150658573174</v>
       </c>
       <c r="D15">
-        <v>3.517561394214006</v>
+        <v>6.860711821895676</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.93071984184389</v>
+        <v>47.26516396577977</v>
       </c>
       <c r="G15">
-        <v>34.52252348223032</v>
+        <v>2.018734507521274</v>
       </c>
       <c r="H15">
-        <v>34.63585601559361</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.686887029314443</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,39 +1065,45 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.58107627753622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>32.44189469846383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.24044074427368</v>
+        <v>30.80010749507504</v>
       </c>
       <c r="C16">
-        <v>15.33552363968096</v>
+        <v>22.39752959085035</v>
       </c>
       <c r="D16">
-        <v>3.532427339126404</v>
+        <v>6.680309041300327</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.43624428531228</v>
+        <v>45.86903958093082</v>
       </c>
       <c r="G16">
-        <v>33.31395647623589</v>
+        <v>2.027804521184526</v>
       </c>
       <c r="H16">
-        <v>33.53458152176593</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.453189621945764</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,39 +1112,45 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.83003663116481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>31.54750041769709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.73320878466372</v>
+        <v>30.09319652109004</v>
       </c>
       <c r="C17">
-        <v>15.0367452035536</v>
+        <v>21.88751951872812</v>
       </c>
       <c r="D17">
-        <v>3.54269654724895</v>
+        <v>6.568393245853299</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.51691250273159</v>
+        <v>45.01789194785923</v>
       </c>
       <c r="G17">
-        <v>32.5695212145449</v>
+        <v>2.033358748062442</v>
       </c>
       <c r="H17">
-        <v>32.85917572863767</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.310814227558547</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,39 +1159,45 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.76314562078754</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>31.00542669060029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.43782283207385</v>
+        <v>29.68213985609424</v>
       </c>
       <c r="C18">
-        <v>14.86276049149906</v>
+        <v>21.59095253398965</v>
       </c>
       <c r="D18">
-        <v>3.548983551467481</v>
+        <v>6.50356495973102</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.98695078072561</v>
+        <v>44.53015502479062</v>
       </c>
       <c r="G18">
-        <v>32.13999414276189</v>
+        <v>2.036552083504572</v>
       </c>
       <c r="H18">
-        <v>32.4705714716227</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.229267988728306</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,39 +1206,45 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.15092919943107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>30.69596274089281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.33717947151172</v>
+        <v>29.54218458928947</v>
       </c>
       <c r="C19">
-        <v>14.80348474923059</v>
+        <v>21.48997689605078</v>
       </c>
       <c r="D19">
-        <v>3.551173931641532</v>
+        <v>6.481536846506295</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.80728988969405</v>
+        <v>44.36531739582112</v>
       </c>
       <c r="G19">
-        <v>31.99431249241825</v>
+        <v>2.037633277244481</v>
       </c>
       <c r="H19">
-        <v>32.33895858866606</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.201715423528285</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,39 +1253,45 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.94378338933282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>30.59157374159592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.78757982061626</v>
+        <v>30.1689069995094</v>
       </c>
       <c r="C20">
-        <v>15.06877149376714</v>
+        <v>21.94214217196843</v>
       </c>
       <c r="D20">
-        <v>3.541563116256193</v>
+        <v>6.580354230224904</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.61489448267545</v>
+        <v>45.10830689302069</v>
       </c>
       <c r="G20">
-        <v>32.64890223455262</v>
+        <v>2.03276767725202</v>
       </c>
       <c r="H20">
-        <v>32.93108316895729</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.325934308355144</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,39 +1300,45 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.87654399761147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>31.06288883958575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.25780437810097</v>
+        <v>32.22230103989896</v>
       </c>
       <c r="C21">
-        <v>15.93462785203826</v>
+        <v>23.42360871791013</v>
       </c>
       <c r="D21">
-        <v>3.514116493459809</v>
+        <v>6.90690493236635</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.31603306993951</v>
+        <v>47.62739591736216</v>
       </c>
       <c r="G21">
-        <v>34.83384212261981</v>
+        <v>2.016387710527716</v>
       </c>
       <c r="H21">
-        <v>34.92043262531362</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.747548369157681</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,39 +1347,45 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>41.03659221131291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>32.67495209672842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.18756737589553</v>
+        <v>33.52770091541571</v>
       </c>
       <c r="C22">
-        <v>16.48156746173019</v>
+        <v>24.36552862505352</v>
       </c>
       <c r="D22">
-        <v>3.500548820153697</v>
+        <v>7.116286156023524</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.1935459025967</v>
+        <v>49.29339248601833</v>
       </c>
       <c r="G22">
-        <v>36.28288040150869</v>
+        <v>2.005618168545776</v>
       </c>
       <c r="H22">
-        <v>36.25562581928548</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.02665525374838</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,39 +1394,45 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>43.14507300444077</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>33.75177820089091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.69411922614017</v>
+        <v>32.83417040611346</v>
       </c>
       <c r="C23">
-        <v>16.19139267058981</v>
+        <v>23.86508875782471</v>
       </c>
       <c r="D23">
-        <v>3.507334516753926</v>
+        <v>7.004900420794787</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.19235359640079</v>
+        <v>48.40221620074281</v>
       </c>
       <c r="G23">
-        <v>35.50051039039067</v>
+        <v>2.011374757654211</v>
       </c>
       <c r="H23">
-        <v>35.52778641849201</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.877334929880078</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,39 +1441,45 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>42.01395924518223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>33.17477680248645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.76301043707285</v>
+        <v>30.13469279022774</v>
       </c>
       <c r="C24">
-        <v>15.05429930253717</v>
+        <v>21.91745774685699</v>
       </c>
       <c r="D24">
-        <v>3.542074356989621</v>
+        <v>6.574948184196998</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.57060133108441</v>
+        <v>45.06742534754697</v>
       </c>
       <c r="G24">
-        <v>32.61301893211302</v>
+        <v>2.03303489939169</v>
       </c>
       <c r="H24">
-        <v>32.89857481005181</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.319097567322556</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,39 +1488,45 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.82527329263854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>31.0369034321521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.54014988684265</v>
+        <v>27.05104654942287</v>
       </c>
       <c r="C25">
-        <v>13.74593478055225</v>
+        <v>19.69240105308013</v>
       </c>
       <c r="D25">
-        <v>3.593800459589365</v>
+        <v>6.093809152409544</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.67716428396639</v>
+        <v>41.53963576565472</v>
       </c>
       <c r="G25">
-        <v>29.4496078329859</v>
+        <v>2.056370111736348</v>
       </c>
       <c r="H25">
-        <v>30.05702257698293</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.730082807824999</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.3549647432621</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>28.81923445253359</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.61875011627195</v>
+        <v>12.76234323641882</v>
       </c>
       <c r="C2">
-        <v>17.93639337228895</v>
+        <v>7.594413915720262</v>
       </c>
       <c r="D2">
-        <v>5.725205311837873</v>
+        <v>5.191849536761091</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.99291918236347</v>
+        <v>25.36665207710577</v>
       </c>
       <c r="G2">
-        <v>2.073757796985973</v>
+        <v>35.42620652885783</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.92500439687484</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>20.01474383603167</v>
       </c>
       <c r="J2">
-        <v>8.306456054226247</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.09352313209</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.196157648101539</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.92236580312562</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.2544496182759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.86354164244798</v>
+        <v>11.89621739291687</v>
       </c>
       <c r="C3">
-        <v>16.66829223629958</v>
+        <v>7.418443018694468</v>
       </c>
       <c r="D3">
-        <v>5.467188736157893</v>
+        <v>5.162392630417955</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.29845934081239</v>
+        <v>24.86764542059137</v>
       </c>
       <c r="G3">
-        <v>2.08576513079173</v>
+        <v>34.71372595232312</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.90437955661699</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>19.97985841015748</v>
       </c>
       <c r="J3">
-        <v>8.025623304888505</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.46107432645434</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.094418705834136</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.597695306925722</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.23484351464244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.73147254810592</v>
+        <v>11.33372492608564</v>
       </c>
       <c r="C4">
-        <v>15.84983301941853</v>
+        <v>7.307943394047321</v>
       </c>
       <c r="D4">
-        <v>5.305097532959651</v>
+        <v>5.143864371777952</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.27452444696585</v>
+        <v>24.57636487887107</v>
       </c>
       <c r="G4">
-        <v>2.093274886795376</v>
+        <v>34.30025877502673</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.89886552684738</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>19.97162432222238</v>
       </c>
       <c r="J4">
-        <v>7.856412146409044</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.0532134936193</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.034952893295</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.39766732144847</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.62891023895126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.2562535317</v>
+        <v>11.09673330356086</v>
       </c>
       <c r="C5">
-        <v>15.50610282844151</v>
+        <v>7.262315247400434</v>
       </c>
       <c r="D5">
-        <v>5.238194793517224</v>
+        <v>5.136206196553535</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.86163954424079</v>
+        <v>24.46150032220332</v>
       </c>
       <c r="G5">
-        <v>2.096373266380691</v>
+        <v>34.13782021746462</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.89835808816973</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>19.9714688303658</v>
       </c>
       <c r="J5">
-        <v>7.78829913680571</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.882130840140944</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.011482817667604</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.316098671303696</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.38707516051275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.17649870099673</v>
+        <v>11.05691007795874</v>
       </c>
       <c r="C6">
-        <v>15.44840542537134</v>
+        <v>7.254703144913909</v>
       </c>
       <c r="D6">
-        <v>5.22703676541599</v>
+        <v>5.134928151202812</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.79335278091214</v>
+        <v>24.4426595542254</v>
       </c>
       <c r="G6">
-        <v>2.09689014966502</v>
+        <v>34.11121314187245</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.89837719088329</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>19.97163289597942</v>
       </c>
       <c r="J6">
-        <v>7.777040949494015</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.853429555927102</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.007631892865682</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.302554420814609</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.34722715953029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.7251201022442</v>
+        <v>11.33056031186083</v>
       </c>
       <c r="C7">
-        <v>15.84523889270079</v>
+        <v>7.307330435237308</v>
       </c>
       <c r="D7">
-        <v>5.3041985908147</v>
+        <v>5.143761522881639</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.26893805638144</v>
+        <v>24.57480021095898</v>
       </c>
       <c r="G7">
-        <v>2.09331651387091</v>
+        <v>34.29804355461696</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.89885171684461</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>19.97160942158702</v>
       </c>
       <c r="J7">
-        <v>7.855490093894109</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.05092589712895</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.034633270249535</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.396567325235532</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.62562811198392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.02469707333434</v>
+        <v>12.4700388845142</v>
       </c>
       <c r="C8">
-        <v>17.50730638462479</v>
+        <v>7.534258345005018</v>
       </c>
       <c r="D8">
-        <v>5.637041906723591</v>
+        <v>5.181786398324287</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.4053695562956</v>
+        <v>25.19148192609063</v>
       </c>
       <c r="G8">
-        <v>2.077871716734367</v>
+        <v>35.17557825272316</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.91637395649963</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>19.99990910341755</v>
       </c>
       <c r="J8">
-        <v>8.208972715932882</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.87952619631329</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.160460011915069</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.810626766974391</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.89872678703483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.11405784976751</v>
+        <v>14.463601775965</v>
       </c>
       <c r="C9">
-        <v>20.45953304292332</v>
+        <v>7.959143238749311</v>
       </c>
       <c r="D9">
-        <v>6.258175935107202</v>
+        <v>5.252708800866276</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.7197848692719</v>
+        <v>26.51880256683419</v>
       </c>
       <c r="G9">
-        <v>2.048491556156927</v>
+        <v>37.08537308160376</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.01007764842648</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>20.16519498602928</v>
       </c>
       <c r="J9">
-        <v>8.926889820673187</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.34857259637616</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.4306349703148</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.61261879746579</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>29.55532500977761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.88017641425818</v>
+        <v>15.78502318429065</v>
       </c>
       <c r="C10">
-        <v>22.45529618605555</v>
+        <v>8.258373755296155</v>
       </c>
       <c r="D10">
-        <v>6.6930173892953</v>
+        <v>5.302410575737246</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>45.96641742951579</v>
+        <v>27.56316937279116</v>
       </c>
       <c r="G10">
-        <v>2.027170402446266</v>
+        <v>38.60123222280179</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.11869127045518</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>20.36062707819362</v>
       </c>
       <c r="J10">
-        <v>9.469483616250313</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.33266314222647</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.642855162785018</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.190351049699</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>31.60967672682817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.09142999564523</v>
+        <v>16.35589247974963</v>
       </c>
       <c r="C11">
-        <v>23.32918502007041</v>
+        <v>8.391613988003956</v>
       </c>
       <c r="D11">
-        <v>6.885981579623465</v>
+        <v>5.324460963104086</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.46308272285189</v>
+        <v>28.0527174912141</v>
       </c>
       <c r="G11">
-        <v>2.017451968002149</v>
+        <v>39.31475181071698</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.17751308486369</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>20.46711257868668</v>
       </c>
       <c r="J11">
-        <v>9.720030352591587</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.75984245978277</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.742257721340105</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.44975777189613</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>32.56918481163438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.54378047311777</v>
+        <v>16.56778568743243</v>
       </c>
       <c r="C12">
-        <v>23.65556128468956</v>
+        <v>8.441651503362118</v>
       </c>
       <c r="D12">
-        <v>6.958358081012365</v>
+        <v>5.332727273693654</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.03314200871719</v>
+        <v>28.24013160453243</v>
       </c>
       <c r="G12">
-        <v>2.013761530742776</v>
+        <v>39.58834380095526</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.20120491206236</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>20.51008782282612</v>
       </c>
       <c r="J12">
-        <v>9.815508099874485</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.91868180076688</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.780300598088308</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.54743633789816</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>32.93647349163177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.44663225246053</v>
+        <v>16.52234005485926</v>
       </c>
       <c r="C13">
-        <v>23.5854665483465</v>
+        <v>8.430893622372448</v>
       </c>
       <c r="D13">
-        <v>6.942801218885725</v>
+        <v>5.330950750008975</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>47.91021303783753</v>
+        <v>28.19967885410329</v>
       </c>
       <c r="G13">
-        <v>2.014556921697485</v>
+        <v>39.52927036176624</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.19603839705641</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>20.50071244376014</v>
       </c>
       <c r="J13">
-        <v>9.794917135569033</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.88460252971569</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.772089689265779</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.52642499924374</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>32.85718888364354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.12876913359352</v>
+        <v>16.37341049326655</v>
       </c>
       <c r="C14">
-        <v>23.35612517653983</v>
+        <v>8.395738982396885</v>
       </c>
       <c r="D14">
-        <v>6.891949899160123</v>
+        <v>5.325142733470184</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>47.50991224598864</v>
+        <v>28.06809565621761</v>
       </c>
       <c r="G14">
-        <v>2.0171486066524</v>
+        <v>39.33719251554211</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.17943345385439</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>20.47059433115339</v>
       </c>
       <c r="J14">
-        <v>9.7278728269263</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.77296872006892</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.745379544638407</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.45780525422353</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>32.59932034858926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.93325935067006</v>
+        <v>16.28163117256194</v>
       </c>
       <c r="C15">
-        <v>23.2150658573174</v>
+        <v>8.374151315517523</v>
       </c>
       <c r="D15">
-        <v>6.860711821895676</v>
+        <v>5.321574159527915</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>47.26516396577977</v>
+        <v>27.98776065635955</v>
       </c>
       <c r="G15">
-        <v>2.018734507521274</v>
+        <v>39.21998059572894</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.16944892148724</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>20.45249508211617</v>
       </c>
       <c r="J15">
-        <v>9.686887029314443</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.70420975511148</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.729070780645202</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.41569995966222</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>32.44189469846383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.80010749507504</v>
+        <v>15.74711249634215</v>
       </c>
       <c r="C16">
-        <v>22.39752959085035</v>
+        <v>8.249607852124729</v>
       </c>
       <c r="D16">
-        <v>6.680309041300327</v>
+        <v>5.300957997487502</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>45.86903958093082</v>
+        <v>27.53146306545574</v>
       </c>
       <c r="G16">
-        <v>2.027804521184526</v>
+        <v>38.55507973599062</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.11504197053532</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>20.35403232547059</v>
       </c>
       <c r="J16">
-        <v>9.453189621945764</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.3043353960162</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.636415665682747</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.17332399587017</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>31.54750041769709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.09319652109004</v>
+        <v>15.4115015125308</v>
       </c>
       <c r="C17">
-        <v>21.88751951872812</v>
+        <v>8.172463079790779</v>
       </c>
       <c r="D17">
-        <v>6.568393245853299</v>
+        <v>5.288165082249971</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.01789194785923</v>
+        <v>27.25520731389065</v>
       </c>
       <c r="G17">
-        <v>2.033358748062442</v>
+        <v>38.1532820468827</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.08412108418047</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>20.2982194504995</v>
       </c>
       <c r="J17">
-        <v>9.310814227558547</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.05379105619548</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.58030025030933</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.02371309734098</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>31.00542669060029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.68213985609424</v>
+        <v>15.21561528103729</v>
       </c>
       <c r="C18">
-        <v>21.59095253398965</v>
+        <v>8.12782024758693</v>
       </c>
       <c r="D18">
-        <v>6.50356495973102</v>
+        <v>5.280754495286054</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.53015502479062</v>
+        <v>27.09767578514085</v>
       </c>
       <c r="G18">
-        <v>2.036552083504572</v>
+        <v>37.92443497138481</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.06721835784448</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>20.26776493734199</v>
       </c>
       <c r="J18">
-        <v>9.229267988728306</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.90775428457579</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.548294155761072</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.93734329047103</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>30.69596274089281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.54218458928947</v>
+        <v>15.14879978095836</v>
       </c>
       <c r="C19">
-        <v>21.48997689605078</v>
+        <v>8.112658529565929</v>
       </c>
       <c r="D19">
-        <v>6.481536846506295</v>
+        <v>5.278236491601892</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.36531739582112</v>
+        <v>27.04457404436131</v>
       </c>
       <c r="G19">
-        <v>2.037633277244481</v>
+        <v>37.84734039114023</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.06164496404575</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>20.25773278702413</v>
       </c>
       <c r="J19">
-        <v>9.201715423528285</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.85797666885008</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.537504147615925</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.9080475262774</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>30.59157374159592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.1689069995094</v>
+        <v>15.44752253160299</v>
       </c>
       <c r="C20">
-        <v>21.94214217196843</v>
+        <v>8.180703375546662</v>
       </c>
       <c r="D20">
-        <v>6.580354230224904</v>
+        <v>5.289532361155305</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.10830689302069</v>
+        <v>27.28447445996688</v>
       </c>
       <c r="G20">
-        <v>2.03276767725202</v>
+        <v>38.19582094544089</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.08732090674775</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>20.30398941732133</v>
       </c>
       <c r="J20">
-        <v>9.325934308355144</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.08066157179193</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.586245965500319</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.03967279477988</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>31.06288883958575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.22230103989896</v>
+        <v>16.41727039046502</v>
       </c>
       <c r="C21">
-        <v>23.42360871791013</v>
+        <v>8.406076097684494</v>
       </c>
       <c r="D21">
-        <v>6.90690493236635</v>
+        <v>5.326850986118113</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>47.62739591736216</v>
+        <v>28.1066899862165</v>
       </c>
       <c r="G21">
-        <v>2.016387710527716</v>
+        <v>39.39351853123815</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.18427175230381</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>20.47936780665579</v>
       </c>
       <c r="J21">
-        <v>9.747548369157681</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.80583742466577</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.75321414772558</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.4779759968831</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>32.67495209672842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.52770091541571</v>
+        <v>17.02612799417232</v>
       </c>
       <c r="C22">
-        <v>24.36552862505352</v>
+        <v>8.550936583689614</v>
       </c>
       <c r="D22">
-        <v>7.116286156023524</v>
+        <v>5.350751535325959</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>49.29339248601833</v>
+        <v>28.65588991976421</v>
       </c>
       <c r="G22">
-        <v>2.005618168545776</v>
+        <v>40.19607548235783</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.25592586688235</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>20.60950018649656</v>
       </c>
       <c r="J22">
-        <v>10.02665525374838</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.26275280775863</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.864672602439213</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.76253682146991</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>33.75177820089091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.83417040611346</v>
+        <v>16.70342706599984</v>
       </c>
       <c r="C23">
-        <v>23.86508875782471</v>
+        <v>8.473844715118791</v>
       </c>
       <c r="D23">
-        <v>7.004900420794787</v>
+        <v>5.338041213478862</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>48.40221620074281</v>
+        <v>28.36170161742267</v>
       </c>
       <c r="G23">
-        <v>2.011374757654211</v>
+        <v>39.76593651722185</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.21690283130876</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>20.53858588192863</v>
       </c>
       <c r="J23">
-        <v>9.877334929880078</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.02043739937646</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.804974570954261</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.6103469148694</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>33.17477680248645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.13469279022774</v>
+        <v>15.43124658830543</v>
       </c>
       <c r="C24">
-        <v>21.91745774685699</v>
+        <v>8.176978844793954</v>
       </c>
       <c r="D24">
-        <v>6.574948184196998</v>
+        <v>5.288914387823295</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.06742534754697</v>
+        <v>27.27123875656533</v>
       </c>
       <c r="G24">
-        <v>2.03303489939169</v>
+        <v>38.17658240343172</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.08587154914326</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>20.3013757380475</v>
       </c>
       <c r="J24">
-        <v>9.319097567322556</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.06851962878448</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.583557111329656</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.03245852107965</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>31.0369034321521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.05104654942287</v>
+        <v>13.94971705685611</v>
       </c>
       <c r="C25">
-        <v>19.69240105308013</v>
+        <v>7.846434189864299</v>
       </c>
       <c r="D25">
-        <v>6.093809152409544</v>
+        <v>5.233931666991936</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>41.53963576565472</v>
+        <v>26.14736855686757</v>
       </c>
       <c r="G25">
-        <v>2.056370111736348</v>
+        <v>36.5487246683963</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.97800482545301</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>20.10799637299018</v>
       </c>
       <c r="J25">
-        <v>8.730082807824999</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.96790340258774</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.355093217017999</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.39732595122737</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>28.81923445253359</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.76234323641882</v>
+        <v>11.71488928101106</v>
       </c>
       <c r="C2">
-        <v>7.594413915720262</v>
+        <v>8.434182132843857</v>
       </c>
       <c r="D2">
-        <v>5.191849536761091</v>
+        <v>6.503814739765549</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.36665207710577</v>
+        <v>32.12301095449332</v>
       </c>
       <c r="G2">
-        <v>35.42620652885783</v>
+        <v>42.38729463051282</v>
       </c>
       <c r="H2">
-        <v>11.92500439687484</v>
+        <v>17.65249033466434</v>
       </c>
       <c r="I2">
-        <v>20.01474383603167</v>
+        <v>28.37936810150292</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.09352313209</v>
+        <v>9.129534382495686</v>
       </c>
       <c r="L2">
-        <v>7.196157648101539</v>
+        <v>11.13554364994146</v>
       </c>
       <c r="M2">
-        <v>9.92236580312562</v>
+        <v>14.57061856873929</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.89621739291687</v>
+        <v>11.51764479922584</v>
       </c>
       <c r="C3">
-        <v>7.418443018694468</v>
+        <v>8.374148759383495</v>
       </c>
       <c r="D3">
-        <v>5.162392630417955</v>
+        <v>6.487727894908961</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.86764542059137</v>
+        <v>32.10506768438444</v>
       </c>
       <c r="G3">
-        <v>34.71372595232312</v>
+        <v>42.34391727002451</v>
       </c>
       <c r="H3">
-        <v>11.90437955661699</v>
+        <v>17.68638879260773</v>
       </c>
       <c r="I3">
-        <v>19.97985841015748</v>
+        <v>28.43534746586974</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.46107432645434</v>
+        <v>8.982034681785848</v>
       </c>
       <c r="L3">
-        <v>7.094418705834136</v>
+        <v>11.14338586331154</v>
       </c>
       <c r="M3">
-        <v>9.597695306925722</v>
+        <v>14.54863458339762</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.33372492608564</v>
+        <v>11.39757517394168</v>
       </c>
       <c r="C4">
-        <v>7.307943394047321</v>
+        <v>8.336297835266707</v>
       </c>
       <c r="D4">
-        <v>5.143864371777952</v>
+        <v>6.477562224406262</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.57636487887107</v>
+        <v>32.10141775002383</v>
       </c>
       <c r="G4">
-        <v>34.30025877502673</v>
+        <v>42.32806599309615</v>
       </c>
       <c r="H4">
-        <v>11.89886552684738</v>
+        <v>17.70995869212606</v>
       </c>
       <c r="I4">
-        <v>19.97162432222238</v>
+        <v>28.47460306204254</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.0532134936193</v>
+        <v>8.892315548844078</v>
       </c>
       <c r="L4">
-        <v>7.034952893295</v>
+        <v>11.14987464043311</v>
       </c>
       <c r="M4">
-        <v>9.39766732144847</v>
+        <v>14.53758180971919</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.09673330356086</v>
+        <v>11.34897500174641</v>
       </c>
       <c r="C5">
-        <v>7.262315247400434</v>
+        <v>8.320628071094303</v>
       </c>
       <c r="D5">
-        <v>5.136206196553535</v>
+        <v>6.473347636104686</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.46150032220332</v>
+        <v>32.10178456194593</v>
       </c>
       <c r="G5">
-        <v>34.13782021746462</v>
+        <v>42.32432047561178</v>
       </c>
       <c r="H5">
-        <v>11.89835808816973</v>
+        <v>17.72025607240428</v>
       </c>
       <c r="I5">
-        <v>19.9714688303658</v>
+        <v>28.49182638052129</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.882130840140944</v>
+        <v>8.856016420769707</v>
       </c>
       <c r="L5">
-        <v>7.011482817667604</v>
+        <v>11.15294013360899</v>
       </c>
       <c r="M5">
-        <v>9.316098671303696</v>
+        <v>14.53369655208956</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.05691007795874</v>
+        <v>11.34092684671063</v>
       </c>
       <c r="C6">
-        <v>7.254703144913909</v>
+        <v>8.318011420294187</v>
       </c>
       <c r="D6">
-        <v>5.134928151202812</v>
+        <v>6.472643473192534</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.4426595542254</v>
+        <v>32.10195748238745</v>
       </c>
       <c r="G6">
-        <v>34.11121314187245</v>
+        <v>42.32386248783968</v>
       </c>
       <c r="H6">
-        <v>11.89837719088329</v>
+        <v>17.72200774844783</v>
       </c>
       <c r="I6">
-        <v>19.97163289597942</v>
+        <v>28.49476031221553</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.853429555927102</v>
+        <v>8.850006252880508</v>
       </c>
       <c r="L6">
-        <v>7.007631892865682</v>
+        <v>11.15347460991257</v>
       </c>
       <c r="M6">
-        <v>9.302554420814609</v>
+        <v>14.53308889037766</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.33056031186083</v>
+        <v>11.39691831246402</v>
       </c>
       <c r="C7">
-        <v>7.307330435237308</v>
+        <v>8.336087495137342</v>
       </c>
       <c r="D7">
-        <v>5.143761522881639</v>
+        <v>6.477505675852401</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.57480021095898</v>
+        <v>32.10141518825557</v>
       </c>
       <c r="G7">
-        <v>34.29804355461696</v>
+        <v>42.32800448907133</v>
       </c>
       <c r="H7">
-        <v>11.89885171684461</v>
+        <v>17.71009476333156</v>
       </c>
       <c r="I7">
-        <v>19.97160942158702</v>
+        <v>28.47483037883242</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.05092589712895</v>
+        <v>8.89182487949962</v>
       </c>
       <c r="L7">
-        <v>7.034633270249535</v>
+        <v>11.14991427658813</v>
       </c>
       <c r="M7">
-        <v>9.396567325235532</v>
+        <v>14.53752690127438</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.4700388845142</v>
+        <v>11.64670429178034</v>
       </c>
       <c r="C8">
-        <v>7.534258345005018</v>
+        <v>8.413690391112583</v>
       </c>
       <c r="D8">
-        <v>5.181786398324287</v>
+        <v>6.498328122238599</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.19148192609063</v>
+        <v>32.11529636250108</v>
       </c>
       <c r="G8">
-        <v>35.17557825272316</v>
+        <v>42.37010242482308</v>
       </c>
       <c r="H8">
-        <v>11.91637395649963</v>
+        <v>17.66360615650043</v>
       </c>
       <c r="I8">
-        <v>19.99990910341755</v>
+        <v>28.39765507406214</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.87952619631329</v>
+        <v>9.078530416535552</v>
       </c>
       <c r="L8">
-        <v>7.160460011915069</v>
+        <v>11.13790056164057</v>
       </c>
       <c r="M8">
-        <v>9.810626766974391</v>
+        <v>14.56253338713263</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.463601775965</v>
+        <v>12.14182412525159</v>
       </c>
       <c r="C9">
-        <v>7.959143238749311</v>
+        <v>8.557851550654071</v>
       </c>
       <c r="D9">
-        <v>5.252708800866276</v>
+        <v>6.536852947248571</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.51880256683419</v>
+        <v>32.20085200969435</v>
       </c>
       <c r="G9">
-        <v>37.08537308160376</v>
+        <v>42.53800078491177</v>
       </c>
       <c r="H9">
-        <v>12.01007764842648</v>
+        <v>17.59433534296529</v>
       </c>
       <c r="I9">
-        <v>20.16519498602928</v>
+        <v>28.28514238015255</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.34857259637616</v>
+        <v>9.449218076094359</v>
       </c>
       <c r="L9">
-        <v>7.4306349703148</v>
+        <v>11.12759992997982</v>
       </c>
       <c r="M9">
-        <v>10.61261879746579</v>
+        <v>14.63078757938668</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.78502318429065</v>
+        <v>12.50493098203343</v>
       </c>
       <c r="C10">
-        <v>8.258373755296155</v>
+        <v>8.658670607502762</v>
       </c>
       <c r="D10">
-        <v>5.302410575737246</v>
+        <v>6.563724441912759</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.56316937279116</v>
+        <v>32.29903506140134</v>
       </c>
       <c r="G10">
-        <v>38.60123222280179</v>
+        <v>42.71296278287974</v>
       </c>
       <c r="H10">
-        <v>12.11869127045518</v>
+        <v>17.5568199193856</v>
       </c>
       <c r="I10">
-        <v>20.36062707819362</v>
+        <v>28.22624543320505</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.33266314222647</v>
+        <v>9.721499832106833</v>
       </c>
       <c r="L10">
-        <v>7.642855162785018</v>
+        <v>11.12808167742614</v>
       </c>
       <c r="M10">
-        <v>11.190351049699</v>
+        <v>14.69237495063467</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.35589247974963</v>
+        <v>12.66918646894317</v>
       </c>
       <c r="C11">
-        <v>8.391613988003956</v>
+        <v>8.703386293603057</v>
       </c>
       <c r="D11">
-        <v>5.324460963104086</v>
+        <v>6.575632580671923</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.0527174912141</v>
+        <v>32.35129448245518</v>
       </c>
       <c r="G11">
-        <v>39.31475181071698</v>
+        <v>42.80362603373723</v>
       </c>
       <c r="H11">
-        <v>12.17751308486369</v>
+        <v>17.54266321042823</v>
       </c>
       <c r="I11">
-        <v>20.46711257868668</v>
+        <v>28.20462921454118</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.75984245978277</v>
+        <v>9.844774420370319</v>
       </c>
       <c r="L11">
-        <v>7.742257721340105</v>
+        <v>11.13003954759935</v>
       </c>
       <c r="M11">
-        <v>11.44975777189613</v>
+        <v>14.72281048676537</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.56778568743243</v>
+        <v>12.7311903547364</v>
       </c>
       <c r="C12">
-        <v>8.441651503362118</v>
+        <v>8.720150324017581</v>
       </c>
       <c r="D12">
-        <v>5.332727273693654</v>
+        <v>6.580095985182243</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.24013160453243</v>
+        <v>32.37216723065859</v>
       </c>
       <c r="G12">
-        <v>39.58834380095526</v>
+        <v>42.83953456392188</v>
       </c>
       <c r="H12">
-        <v>12.20120491206236</v>
+        <v>17.53772104003015</v>
       </c>
       <c r="I12">
-        <v>20.51008782282612</v>
+        <v>28.19718908800529</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.91868180076688</v>
+        <v>9.891324551441324</v>
       </c>
       <c r="L12">
-        <v>7.780300598088308</v>
+        <v>11.13102996900242</v>
       </c>
       <c r="M12">
-        <v>11.54743633789816</v>
+        <v>14.73467722350083</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.52234005485926</v>
+        <v>12.71784640793019</v>
       </c>
       <c r="C13">
-        <v>8.430893622372448</v>
+        <v>8.716547459100731</v>
       </c>
       <c r="D13">
-        <v>5.330950750008975</v>
+        <v>6.579136763175551</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>28.19967885410329</v>
+        <v>32.36762389025319</v>
       </c>
       <c r="G13">
-        <v>39.52927036176624</v>
+        <v>42.8317311882662</v>
       </c>
       <c r="H13">
-        <v>12.19603839705641</v>
+        <v>17.53876680034713</v>
       </c>
       <c r="I13">
-        <v>20.50071244376014</v>
+        <v>28.19875828196678</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.88460252971569</v>
+        <v>9.881305710490309</v>
       </c>
       <c r="L13">
-        <v>7.772089689265779</v>
+        <v>11.13080560617766</v>
       </c>
       <c r="M13">
-        <v>11.52642499924374</v>
+        <v>14.73210642890067</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.37341049326655</v>
+        <v>12.67429184862792</v>
       </c>
       <c r="C14">
-        <v>8.395738982396885</v>
+        <v>8.704768885760599</v>
       </c>
       <c r="D14">
-        <v>5.325142733470184</v>
+        <v>6.576000711566481</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>28.06809565621761</v>
+        <v>32.35299004232029</v>
       </c>
       <c r="G14">
-        <v>39.33719251554211</v>
+        <v>42.80654875701205</v>
       </c>
       <c r="H14">
-        <v>12.17943345385439</v>
+        <v>17.54224822285497</v>
       </c>
       <c r="I14">
-        <v>20.47059433115339</v>
+        <v>28.20400216493406</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.77296872006892</v>
+        <v>9.84860701969596</v>
       </c>
       <c r="L14">
-        <v>7.745379544638407</v>
+        <v>11.13011604565641</v>
       </c>
       <c r="M14">
-        <v>11.45780525422353</v>
+        <v>14.72377996500585</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.28163117256194</v>
+        <v>12.64758605470279</v>
       </c>
       <c r="C15">
-        <v>8.374151315517523</v>
+        <v>8.697532070409782</v>
       </c>
       <c r="D15">
-        <v>5.321574159527915</v>
+        <v>6.574073789761963</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.98776065635955</v>
+        <v>32.34416716904592</v>
       </c>
       <c r="G15">
-        <v>39.21998059572894</v>
+        <v>42.79132856594847</v>
       </c>
       <c r="H15">
-        <v>12.16944892148724</v>
+        <v>17.54443522555367</v>
       </c>
       <c r="I15">
-        <v>20.45249508211617</v>
+        <v>28.20731130602996</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.70420975511148</v>
+        <v>9.828559675896921</v>
       </c>
       <c r="L15">
-        <v>7.729070780645202</v>
+        <v>11.12972606755217</v>
       </c>
       <c r="M15">
-        <v>11.41569995966222</v>
+        <v>14.71872403703009</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.74711249634215</v>
+        <v>12.4941724409237</v>
       </c>
       <c r="C16">
-        <v>8.249607852124729</v>
+        <v>8.655724914084933</v>
       </c>
       <c r="D16">
-        <v>5.300957997487502</v>
+        <v>6.562939815963379</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.53146306545574</v>
+        <v>32.29577188766602</v>
       </c>
       <c r="G16">
-        <v>38.55507973599062</v>
+        <v>42.70725922448665</v>
       </c>
       <c r="H16">
-        <v>12.11504197053532</v>
+        <v>17.55780366473583</v>
       </c>
       <c r="I16">
-        <v>20.35403232547059</v>
+        <v>28.22776236493051</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.3043353960162</v>
+        <v>9.713427680127619</v>
       </c>
       <c r="L16">
-        <v>7.636415665682747</v>
+        <v>11.12798863010589</v>
       </c>
       <c r="M16">
-        <v>11.17332399587017</v>
+        <v>14.69043405664184</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.4115015125308</v>
+        <v>12.39977569791052</v>
       </c>
       <c r="C17">
-        <v>8.172463079790779</v>
+        <v>8.629780948306065</v>
       </c>
       <c r="D17">
-        <v>5.288165082249971</v>
+        <v>6.556028209662482</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.25520731389065</v>
+        <v>32.26802235598117</v>
       </c>
       <c r="G17">
-        <v>38.1532820468827</v>
+        <v>42.65851070869237</v>
       </c>
       <c r="H17">
-        <v>12.08412108418047</v>
+        <v>17.5667501555573</v>
       </c>
       <c r="I17">
-        <v>20.2982194504995</v>
+        <v>28.24163506577525</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.05379105619548</v>
+        <v>9.642613526961329</v>
       </c>
       <c r="L17">
-        <v>7.58030025030933</v>
+        <v>11.1273674175098</v>
       </c>
       <c r="M17">
-        <v>11.02371309734098</v>
+        <v>14.67369422778083</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.21561528103729</v>
+        <v>12.34539787002355</v>
       </c>
       <c r="C18">
-        <v>8.12782024758693</v>
+        <v>8.614750890698703</v>
       </c>
       <c r="D18">
-        <v>5.280754495286054</v>
+        <v>6.552023139726915</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.09767578514085</v>
+        <v>32.25277710035285</v>
       </c>
       <c r="G18">
-        <v>37.92443497138481</v>
+        <v>42.63151510997974</v>
       </c>
       <c r="H18">
-        <v>12.06721835784448</v>
+        <v>17.57216975891336</v>
       </c>
       <c r="I18">
-        <v>20.26776493734199</v>
+        <v>28.2501014401035</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.90775428457579</v>
+        <v>9.601830461464804</v>
       </c>
       <c r="L18">
-        <v>7.548294155761072</v>
+        <v>11.12717383688424</v>
       </c>
       <c r="M18">
-        <v>10.93734329047103</v>
+        <v>14.66429402886777</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.14879978095836</v>
+        <v>12.32697413511225</v>
       </c>
       <c r="C19">
-        <v>8.112658529565929</v>
+        <v>8.609643579032063</v>
       </c>
       <c r="D19">
-        <v>5.278236491601892</v>
+        <v>6.550662007711703</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.04457404436131</v>
+        <v>32.24773846584423</v>
       </c>
       <c r="G19">
-        <v>37.84734039114023</v>
+        <v>42.62255448999813</v>
       </c>
       <c r="H19">
-        <v>12.06164496404575</v>
+        <v>17.57405176075586</v>
       </c>
       <c r="I19">
-        <v>20.25773278702413</v>
+        <v>28.25305164224709</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.85797666885008</v>
+        <v>9.588014431433658</v>
       </c>
       <c r="L19">
-        <v>7.537504147615925</v>
+        <v>11.12713644239161</v>
       </c>
       <c r="M19">
-        <v>10.9080475262774</v>
+        <v>14.66115064989079</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.44752253160299</v>
+        <v>12.40983348266289</v>
       </c>
       <c r="C20">
-        <v>8.180703375546662</v>
+        <v>8.632553910039153</v>
       </c>
       <c r="D20">
-        <v>5.289532361155305</v>
+        <v>6.556767039319354</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.28447445996688</v>
+        <v>32.2709023460481</v>
       </c>
       <c r="G20">
-        <v>38.19582094544089</v>
+        <v>42.66359220555528</v>
       </c>
       <c r="H20">
-        <v>12.08732090674775</v>
+        <v>17.56576944450006</v>
       </c>
       <c r="I20">
-        <v>20.30398941732133</v>
+        <v>28.24010786464616</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.08066157179193</v>
+        <v>9.6501576070317</v>
       </c>
       <c r="L20">
-        <v>7.586245965500319</v>
+        <v>11.12741660870909</v>
       </c>
       <c r="M20">
-        <v>11.03967279477988</v>
+        <v>14.67545264806034</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.41727039046502</v>
+        <v>12.6870906910523</v>
       </c>
       <c r="C21">
-        <v>8.406076097684494</v>
+        <v>8.708233150431296</v>
       </c>
       <c r="D21">
-        <v>5.326850986118113</v>
+        <v>6.576923097204268</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.1066899862165</v>
+        <v>32.35725903736276</v>
       </c>
       <c r="G21">
-        <v>39.39351853123815</v>
+        <v>42.81390280396118</v>
       </c>
       <c r="H21">
-        <v>12.18427175230381</v>
+        <v>17.54121428004176</v>
       </c>
       <c r="I21">
-        <v>20.47936780665579</v>
+        <v>28.202441669769</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.80583742466577</v>
+        <v>9.858215343802257</v>
       </c>
       <c r="L21">
-        <v>7.75321414772558</v>
+        <v>11.1303118366258</v>
       </c>
       <c r="M21">
-        <v>11.4779759968831</v>
+        <v>14.72621643508544</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.02612799417232</v>
+        <v>12.86712394520389</v>
       </c>
       <c r="C22">
-        <v>8.550936583689614</v>
+        <v>8.756708117148655</v>
       </c>
       <c r="D22">
-        <v>5.350751535325959</v>
+        <v>6.589828176040882</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.65588991976421</v>
+        <v>32.42000700047296</v>
       </c>
       <c r="G22">
-        <v>40.19607548235783</v>
+        <v>42.92131856181776</v>
       </c>
       <c r="H22">
-        <v>12.25592586688235</v>
+        <v>17.52760646078142</v>
       </c>
       <c r="I22">
-        <v>20.60950018649656</v>
+        <v>28.18217015113513</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.26275280775863</v>
+        <v>9.993407612384487</v>
       </c>
       <c r="L22">
-        <v>7.864672602439213</v>
+        <v>11.13365495422346</v>
       </c>
       <c r="M22">
-        <v>11.76253682146991</v>
+        <v>14.76138056124555</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.70342706599984</v>
+        <v>12.77116406800796</v>
       </c>
       <c r="C23">
-        <v>8.473844715118791</v>
+        <v>8.730927562032111</v>
       </c>
       <c r="D23">
-        <v>5.338041213478862</v>
+        <v>6.582965195441877</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.36170161742267</v>
+        <v>32.38594326984126</v>
       </c>
       <c r="G23">
-        <v>39.76593651722185</v>
+        <v>42.86315467806885</v>
       </c>
       <c r="H23">
-        <v>12.21690283130876</v>
+        <v>17.53464583130597</v>
       </c>
       <c r="I23">
-        <v>20.53858588192863</v>
+        <v>28.1925915119198</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.02043739937646</v>
+        <v>9.921339767639875</v>
       </c>
       <c r="L23">
-        <v>7.804974570954261</v>
+        <v>11.13173827384814</v>
       </c>
       <c r="M23">
-        <v>11.6103469148694</v>
+        <v>14.74243320198954</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.43124658830543</v>
+        <v>12.40528668935543</v>
       </c>
       <c r="C24">
-        <v>8.176978844793954</v>
+        <v>8.631300610500645</v>
       </c>
       <c r="D24">
-        <v>5.288914387823295</v>
+        <v>6.556433112479014</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.27123875656533</v>
+        <v>32.26959809545362</v>
       </c>
       <c r="G24">
-        <v>38.17658240343172</v>
+        <v>42.66129164941341</v>
       </c>
       <c r="H24">
-        <v>12.08587154914326</v>
+        <v>17.56621196377907</v>
       </c>
       <c r="I24">
-        <v>20.3013757380475</v>
+        <v>28.24079678358515</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.06851962878448</v>
+        <v>9.646747146198676</v>
       </c>
       <c r="L24">
-        <v>7.583557111329656</v>
+        <v>11.12739385981345</v>
       </c>
       <c r="M24">
-        <v>11.03245852107965</v>
+        <v>14.67465696880401</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.94971705685611</v>
+        <v>12.00772169763424</v>
       </c>
       <c r="C25">
-        <v>7.846434189864299</v>
+        <v>8.519732205285282</v>
       </c>
       <c r="D25">
-        <v>5.233931666991936</v>
+        <v>6.526680712639058</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.14736855686757</v>
+        <v>32.17148112474084</v>
       </c>
       <c r="G25">
-        <v>36.5487246683963</v>
+        <v>42.4834774120776</v>
       </c>
       <c r="H25">
-        <v>11.97800482545301</v>
+        <v>17.61072757320622</v>
       </c>
       <c r="I25">
-        <v>20.10799637299018</v>
+        <v>28.31141264967386</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.96790340258774</v>
+        <v>9.348746501432723</v>
       </c>
       <c r="L25">
-        <v>7.355093217017999</v>
+        <v>11.12897009676952</v>
       </c>
       <c r="M25">
-        <v>10.39732595122737</v>
+        <v>14.61029242298449</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.71488928101106</v>
+        <v>12.76234323641883</v>
       </c>
       <c r="C2">
-        <v>8.434182132843857</v>
+        <v>7.594413915720252</v>
       </c>
       <c r="D2">
-        <v>6.503814739765549</v>
+        <v>5.191849536761147</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.12301095449332</v>
+        <v>25.36665207710564</v>
       </c>
       <c r="G2">
-        <v>42.38729463051282</v>
+        <v>35.42620652885775</v>
       </c>
       <c r="H2">
-        <v>17.65249033466434</v>
+        <v>11.92500439687472</v>
       </c>
       <c r="I2">
-        <v>28.37936810150292</v>
+        <v>20.01474383603157</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.129534382495686</v>
+        <v>11.09352313209004</v>
       </c>
       <c r="L2">
-        <v>11.13554364994146</v>
+        <v>7.196157648101538</v>
       </c>
       <c r="M2">
-        <v>14.57061856873929</v>
+        <v>9.922365803125642</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.51764479922584</v>
+        <v>11.89621739291694</v>
       </c>
       <c r="C3">
-        <v>8.374148759383495</v>
+        <v>7.418443018694068</v>
       </c>
       <c r="D3">
-        <v>6.487727894908961</v>
+        <v>5.162392630418084</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32.10506768438444</v>
+        <v>24.86764542059145</v>
       </c>
       <c r="G3">
-        <v>42.34391727002451</v>
+        <v>34.71372595232345</v>
       </c>
       <c r="H3">
-        <v>17.68638879260773</v>
+        <v>11.904379556617</v>
       </c>
       <c r="I3">
-        <v>28.43534746586974</v>
+        <v>19.97985841015749</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.982034681785848</v>
+        <v>10.46107432645429</v>
       </c>
       <c r="L3">
-        <v>11.14338586331154</v>
+        <v>7.094418705834138</v>
       </c>
       <c r="M3">
-        <v>14.54863458339762</v>
+        <v>9.597695306925694</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.39757517394168</v>
+        <v>11.33372492608565</v>
       </c>
       <c r="C4">
-        <v>8.336297835266707</v>
+        <v>7.307943394047428</v>
       </c>
       <c r="D4">
-        <v>6.477562224406262</v>
+        <v>5.143864371777808</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.10141775002383</v>
+        <v>24.57636487887094</v>
       </c>
       <c r="G4">
-        <v>42.32806599309615</v>
+        <v>34.3002587750264</v>
       </c>
       <c r="H4">
-        <v>17.70995869212606</v>
+        <v>11.89886552684733</v>
       </c>
       <c r="I4">
-        <v>28.47460306204254</v>
+        <v>19.97162432222228</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.892315548844078</v>
+        <v>10.05321349361934</v>
       </c>
       <c r="L4">
-        <v>11.14987464043311</v>
+        <v>7.034952893295003</v>
       </c>
       <c r="M4">
-        <v>14.53758180971919</v>
+        <v>9.397667321448479</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.34897500174641</v>
+        <v>11.09673330356088</v>
       </c>
       <c r="C5">
-        <v>8.320628071094303</v>
+        <v>7.262315247400688</v>
       </c>
       <c r="D5">
-        <v>6.473347636104686</v>
+        <v>5.136206196553599</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.10178456194593</v>
+        <v>24.46150032220316</v>
       </c>
       <c r="G5">
-        <v>42.32432047561178</v>
+        <v>34.13782021746447</v>
       </c>
       <c r="H5">
-        <v>17.72025607240428</v>
+        <v>11.89835808816969</v>
       </c>
       <c r="I5">
-        <v>28.49182638052129</v>
+        <v>19.97146883036578</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.856016420769707</v>
+        <v>9.882130840141034</v>
       </c>
       <c r="L5">
-        <v>11.15294013360899</v>
+        <v>7.011482817667572</v>
       </c>
       <c r="M5">
-        <v>14.53369655208956</v>
+        <v>9.316098671303696</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.34092684671063</v>
+        <v>11.05691007795882</v>
       </c>
       <c r="C6">
-        <v>8.318011420294187</v>
+        <v>7.254703144913516</v>
       </c>
       <c r="D6">
-        <v>6.472643473192534</v>
+        <v>5.134928151202947</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.10195748238745</v>
+        <v>24.44265955422533</v>
       </c>
       <c r="G6">
-        <v>42.32386248783968</v>
+        <v>34.11121314187247</v>
       </c>
       <c r="H6">
-        <v>17.72200774844783</v>
+        <v>11.89837719088318</v>
       </c>
       <c r="I6">
-        <v>28.49476031221553</v>
+        <v>19.97163289597926</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.850006252880508</v>
+        <v>9.853429555927068</v>
       </c>
       <c r="L6">
-        <v>11.15347460991257</v>
+        <v>7.007631892865729</v>
       </c>
       <c r="M6">
-        <v>14.53308889037766</v>
+        <v>9.30255442081458</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.39691831246402</v>
+        <v>11.33056031186086</v>
       </c>
       <c r="C7">
-        <v>8.336087495137342</v>
+        <v>7.307330435237041</v>
       </c>
       <c r="D7">
-        <v>6.477505675852401</v>
+        <v>5.1437615228815</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.10141518825557</v>
+        <v>24.57480021095917</v>
       </c>
       <c r="G7">
-        <v>42.32800448907133</v>
+        <v>34.29804355461697</v>
       </c>
       <c r="H7">
-        <v>17.71009476333156</v>
+        <v>11.89885171684474</v>
       </c>
       <c r="I7">
-        <v>28.47483037883242</v>
+        <v>19.97160942158712</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.89182487949962</v>
+        <v>10.05092589712898</v>
       </c>
       <c r="L7">
-        <v>11.14991427658813</v>
+        <v>7.034633270249575</v>
       </c>
       <c r="M7">
-        <v>14.53752690127438</v>
+        <v>9.396567325235514</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.64670429178034</v>
+        <v>12.47003888451414</v>
       </c>
       <c r="C8">
-        <v>8.413690391112583</v>
+        <v>7.534258345005139</v>
       </c>
       <c r="D8">
-        <v>6.498328122238599</v>
+        <v>5.181786398324276</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.11529636250108</v>
+        <v>25.19148192609061</v>
       </c>
       <c r="G8">
-        <v>42.37010242482308</v>
+        <v>35.17557825272323</v>
       </c>
       <c r="H8">
-        <v>17.66360615650043</v>
+        <v>11.91637395649957</v>
       </c>
       <c r="I8">
-        <v>28.39765507406214</v>
+        <v>19.9999091034176</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.078530416535552</v>
+        <v>10.87952619631328</v>
       </c>
       <c r="L8">
-        <v>11.13790056164057</v>
+        <v>7.16046001191505</v>
       </c>
       <c r="M8">
-        <v>14.56253338713263</v>
+        <v>9.810626766974408</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.14182412525159</v>
+        <v>14.46360177596501</v>
       </c>
       <c r="C9">
-        <v>8.557851550654071</v>
+        <v>7.959143238749261</v>
       </c>
       <c r="D9">
-        <v>6.536852947248571</v>
+        <v>5.25270880086632</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.20085200969435</v>
+        <v>26.51880256683406</v>
       </c>
       <c r="G9">
-        <v>42.53800078491177</v>
+        <v>37.08537308160363</v>
       </c>
       <c r="H9">
-        <v>17.59433534296529</v>
+        <v>12.01007764842641</v>
       </c>
       <c r="I9">
-        <v>28.28514238015255</v>
+        <v>20.16519498602919</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.449218076094359</v>
+        <v>12.34857259637618</v>
       </c>
       <c r="L9">
-        <v>11.12759992997982</v>
+        <v>7.430634970314751</v>
       </c>
       <c r="M9">
-        <v>14.63078757938668</v>
+        <v>10.61261879746577</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.50493098203343</v>
+        <v>15.78502318429068</v>
       </c>
       <c r="C10">
-        <v>8.658670607502762</v>
+        <v>8.25837375529642</v>
       </c>
       <c r="D10">
-        <v>6.563724441912759</v>
+        <v>5.302410575737234</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.29903506140134</v>
+        <v>27.5631693727911</v>
       </c>
       <c r="G10">
-        <v>42.71296278287974</v>
+        <v>38.60123222280191</v>
       </c>
       <c r="H10">
-        <v>17.5568199193856</v>
+        <v>12.11869127045506</v>
       </c>
       <c r="I10">
-        <v>28.22624543320505</v>
+        <v>20.36062707819358</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.721499832106833</v>
+        <v>13.33266314222656</v>
       </c>
       <c r="L10">
-        <v>11.12808167742614</v>
+        <v>7.642855162785052</v>
       </c>
       <c r="M10">
-        <v>14.69237495063467</v>
+        <v>11.19035104969899</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.66918646894317</v>
+        <v>16.35589247974954</v>
       </c>
       <c r="C11">
-        <v>8.703386293603057</v>
+        <v>8.391613988004051</v>
       </c>
       <c r="D11">
-        <v>6.575632580671923</v>
+        <v>5.324460963104137</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.35129448245518</v>
+        <v>28.05271749121425</v>
       </c>
       <c r="G11">
-        <v>42.80362603373723</v>
+        <v>39.31475181071728</v>
       </c>
       <c r="H11">
-        <v>17.54266321042823</v>
+        <v>12.17751308486383</v>
       </c>
       <c r="I11">
-        <v>28.20462921454118</v>
+        <v>20.46711257868695</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.844774420370319</v>
+        <v>13.75984245978272</v>
       </c>
       <c r="L11">
-        <v>11.13003954759935</v>
+        <v>7.742257721340137</v>
       </c>
       <c r="M11">
-        <v>14.72281048676537</v>
+        <v>11.44975777189617</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.7311903547364</v>
+        <v>16.56778568743247</v>
       </c>
       <c r="C12">
-        <v>8.720150324017581</v>
+        <v>8.441651503361882</v>
       </c>
       <c r="D12">
-        <v>6.580095985182243</v>
+        <v>5.332727273693776</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.37216723065859</v>
+        <v>28.24013160453239</v>
       </c>
       <c r="G12">
-        <v>42.83953456392188</v>
+        <v>39.58834380095533</v>
       </c>
       <c r="H12">
-        <v>17.53772104003015</v>
+        <v>12.2012049120622</v>
       </c>
       <c r="I12">
-        <v>28.19718908800529</v>
+        <v>20.51008782282602</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.891324551441324</v>
+        <v>13.91868180076685</v>
       </c>
       <c r="L12">
-        <v>11.13102996900242</v>
+        <v>7.780300598088285</v>
       </c>
       <c r="M12">
-        <v>14.73467722350083</v>
+        <v>11.54743633789815</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.71784640793019</v>
+        <v>16.52234005485926</v>
       </c>
       <c r="C13">
-        <v>8.716547459100731</v>
+        <v>8.430893622372299</v>
       </c>
       <c r="D13">
-        <v>6.579136763175551</v>
+        <v>5.330950750009101</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.36762389025319</v>
+        <v>28.1996788541034</v>
       </c>
       <c r="G13">
-        <v>42.8317311882662</v>
+        <v>39.52927036176643</v>
       </c>
       <c r="H13">
-        <v>17.53876680034713</v>
+        <v>12.19603839705646</v>
       </c>
       <c r="I13">
-        <v>28.19875828196678</v>
+        <v>20.50071244376026</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.881305710490309</v>
+        <v>13.88460252971566</v>
       </c>
       <c r="L13">
-        <v>11.13080560617766</v>
+        <v>7.772089689265796</v>
       </c>
       <c r="M13">
-        <v>14.73210642890067</v>
+        <v>11.52642499924374</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.67429184862792</v>
+        <v>16.3734104932666</v>
       </c>
       <c r="C14">
-        <v>8.704768885760599</v>
+        <v>8.39573898239688</v>
       </c>
       <c r="D14">
-        <v>6.576000711566481</v>
+        <v>5.325142733470184</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.35299004232029</v>
+        <v>28.06809565621761</v>
       </c>
       <c r="G14">
-        <v>42.80654875701205</v>
+        <v>39.33719251554206</v>
       </c>
       <c r="H14">
-        <v>17.54224822285497</v>
+        <v>12.17943345385443</v>
       </c>
       <c r="I14">
-        <v>28.20400216493406</v>
+        <v>20.47059433115339</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.84860701969596</v>
+        <v>13.77296872006895</v>
       </c>
       <c r="L14">
-        <v>11.13011604565641</v>
+        <v>7.745379544638419</v>
       </c>
       <c r="M14">
-        <v>14.72377996500585</v>
+        <v>11.45780525422354</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.64758605470279</v>
+        <v>16.28163117256199</v>
       </c>
       <c r="C15">
-        <v>8.697532070409782</v>
+        <v>8.374151315517398</v>
       </c>
       <c r="D15">
-        <v>6.574073789761963</v>
+        <v>5.321574159527724</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>32.34416716904592</v>
+        <v>27.98776065635963</v>
       </c>
       <c r="G15">
-        <v>42.79132856594847</v>
+        <v>39.21998059572908</v>
       </c>
       <c r="H15">
-        <v>17.54443522555367</v>
+        <v>12.16944892148721</v>
       </c>
       <c r="I15">
-        <v>28.20731130602996</v>
+        <v>20.45249508211617</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.828559675896921</v>
+        <v>13.70420975511149</v>
       </c>
       <c r="L15">
-        <v>11.12972606755217</v>
+        <v>7.729070780645199</v>
       </c>
       <c r="M15">
-        <v>14.71872403703009</v>
+        <v>11.41569995966221</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.4941724409237</v>
+        <v>15.74711249634213</v>
       </c>
       <c r="C16">
-        <v>8.655724914084933</v>
+        <v>8.249607852124603</v>
       </c>
       <c r="D16">
-        <v>6.562939815963379</v>
+        <v>5.300957997487625</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.29577188766602</v>
+        <v>27.53146306545568</v>
       </c>
       <c r="G16">
-        <v>42.70725922448665</v>
+        <v>38.55507973599052</v>
       </c>
       <c r="H16">
-        <v>17.55780366473583</v>
+        <v>12.1150419705354</v>
       </c>
       <c r="I16">
-        <v>28.22776236493051</v>
+        <v>20.35403232547057</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.713427680127619</v>
+        <v>13.3043353960162</v>
       </c>
       <c r="L16">
-        <v>11.12798863010589</v>
+        <v>7.636415665682781</v>
       </c>
       <c r="M16">
-        <v>14.69043405664184</v>
+        <v>11.17332399587017</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.39977569791052</v>
+        <v>15.41150151253075</v>
       </c>
       <c r="C17">
-        <v>8.629780948306065</v>
+        <v>8.172463079790766</v>
       </c>
       <c r="D17">
-        <v>6.556028209662482</v>
+        <v>5.288165082250027</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.26802235598117</v>
+        <v>27.25520731389077</v>
       </c>
       <c r="G17">
-        <v>42.65851070869237</v>
+        <v>38.15328204688296</v>
       </c>
       <c r="H17">
-        <v>17.5667501555573</v>
+        <v>12.08412108418056</v>
       </c>
       <c r="I17">
-        <v>28.24163506577525</v>
+        <v>20.29821945049967</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.642613526961329</v>
+        <v>13.05379105619543</v>
       </c>
       <c r="L17">
-        <v>11.1273674175098</v>
+        <v>7.580300250309303</v>
       </c>
       <c r="M17">
-        <v>14.67369422778083</v>
+        <v>11.02371309734098</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.34539787002355</v>
+        <v>15.21561528103725</v>
       </c>
       <c r="C18">
-        <v>8.614750890698703</v>
+        <v>8.127820247586786</v>
       </c>
       <c r="D18">
-        <v>6.552023139726915</v>
+        <v>5.280754495286233</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.25277710035285</v>
+        <v>27.09767578514088</v>
       </c>
       <c r="G18">
-        <v>42.63151510997974</v>
+        <v>37.92443497138501</v>
       </c>
       <c r="H18">
-        <v>17.57216975891336</v>
+        <v>12.06721835784455</v>
       </c>
       <c r="I18">
-        <v>28.2501014401035</v>
+        <v>20.26776493734204</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.601830461464804</v>
+        <v>12.90775428457572</v>
       </c>
       <c r="L18">
-        <v>11.12717383688424</v>
+        <v>7.54829415576104</v>
       </c>
       <c r="M18">
-        <v>14.66429402886777</v>
+        <v>10.93734329047101</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.32697413511225</v>
+        <v>15.14879978095839</v>
       </c>
       <c r="C19">
-        <v>8.609643579032063</v>
+        <v>8.112658529565673</v>
       </c>
       <c r="D19">
-        <v>6.550662007711703</v>
+        <v>5.278236491602073</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.24773846584423</v>
+        <v>27.0445740443613</v>
       </c>
       <c r="G19">
-        <v>42.62255448999813</v>
+        <v>37.84734039114031</v>
       </c>
       <c r="H19">
-        <v>17.57405176075586</v>
+        <v>12.06164496404575</v>
       </c>
       <c r="I19">
-        <v>28.25305164224709</v>
+        <v>20.25773278702413</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.588014431433658</v>
+        <v>12.85797666885004</v>
       </c>
       <c r="L19">
-        <v>11.12713644239161</v>
+        <v>7.537504147615916</v>
       </c>
       <c r="M19">
-        <v>14.66115064989079</v>
+        <v>10.90804752627738</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.40983348266289</v>
+        <v>15.44752253160303</v>
       </c>
       <c r="C20">
-        <v>8.632553910039153</v>
+        <v>8.180703375546649</v>
       </c>
       <c r="D20">
-        <v>6.556767039319354</v>
+        <v>5.289532361155366</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.2709023460481</v>
+        <v>27.28447445996693</v>
       </c>
       <c r="G20">
-        <v>42.66359220555528</v>
+        <v>38.19582094544111</v>
       </c>
       <c r="H20">
-        <v>17.56576944450006</v>
+        <v>12.08732090674771</v>
       </c>
       <c r="I20">
-        <v>28.24010786464616</v>
+        <v>20.30398941732136</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.6501576070317</v>
+        <v>13.08066157179195</v>
       </c>
       <c r="L20">
-        <v>11.12741660870909</v>
+        <v>7.586245965500321</v>
       </c>
       <c r="M20">
-        <v>14.67545264806034</v>
+        <v>11.03967279477987</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.6870906910523</v>
+        <v>16.41727039046508</v>
       </c>
       <c r="C21">
-        <v>8.708233150431296</v>
+        <v>8.40607609768448</v>
       </c>
       <c r="D21">
-        <v>6.576923097204268</v>
+        <v>5.326850986118176</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.35725903736276</v>
+        <v>28.10668998621637</v>
       </c>
       <c r="G21">
-        <v>42.81390280396118</v>
+        <v>39.39351853123812</v>
       </c>
       <c r="H21">
-        <v>17.54121428004176</v>
+        <v>12.18427175230374</v>
       </c>
       <c r="I21">
-        <v>28.202441669769</v>
+        <v>20.47936780665569</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.858215343802257</v>
+        <v>13.8058374246658</v>
       </c>
       <c r="L21">
-        <v>11.1303118366258</v>
+        <v>7.753214147725564</v>
       </c>
       <c r="M21">
-        <v>14.72621643508544</v>
+        <v>11.4779759968831</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.86712394520389</v>
+        <v>17.02612799417243</v>
       </c>
       <c r="C22">
-        <v>8.756708117148655</v>
+        <v>8.550936583689488</v>
       </c>
       <c r="D22">
-        <v>6.589828176040882</v>
+        <v>5.350751535325836</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.42000700047296</v>
+        <v>28.65588991976413</v>
       </c>
       <c r="G22">
-        <v>42.92131856181776</v>
+        <v>40.19607548235783</v>
       </c>
       <c r="H22">
-        <v>17.52760646078142</v>
+        <v>12.2559258668822</v>
       </c>
       <c r="I22">
-        <v>28.18217015113513</v>
+        <v>20.60950018649642</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.993407612384487</v>
+        <v>14.26275280775872</v>
       </c>
       <c r="L22">
-        <v>11.13365495422346</v>
+        <v>7.864672602439294</v>
       </c>
       <c r="M22">
-        <v>14.76138056124555</v>
+        <v>11.76253682146994</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.77116406800796</v>
+        <v>16.70342706599984</v>
       </c>
       <c r="C23">
-        <v>8.730927562032111</v>
+        <v>8.473844715118901</v>
       </c>
       <c r="D23">
-        <v>6.582965195441877</v>
+        <v>5.338041213478923</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.38594326984126</v>
+        <v>28.36170161742266</v>
       </c>
       <c r="G23">
-        <v>42.86315467806885</v>
+        <v>39.76593651722183</v>
       </c>
       <c r="H23">
-        <v>17.53464583130597</v>
+        <v>12.21690283130885</v>
       </c>
       <c r="I23">
-        <v>28.1925915119198</v>
+        <v>20.53858588192866</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.921339767639875</v>
+        <v>14.02043739937645</v>
       </c>
       <c r="L23">
-        <v>11.13173827384814</v>
+        <v>7.804974570954287</v>
       </c>
       <c r="M23">
-        <v>14.74243320198954</v>
+        <v>11.61034691486941</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.40528668935543</v>
+        <v>15.43124658830546</v>
       </c>
       <c r="C24">
-        <v>8.631300610500645</v>
+        <v>8.176978844793824</v>
       </c>
       <c r="D24">
-        <v>6.556433112479014</v>
+        <v>5.288914387823416</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.26959809545362</v>
+        <v>27.27123875656524</v>
       </c>
       <c r="G24">
-        <v>42.66129164941341</v>
+        <v>38.17658240343156</v>
       </c>
       <c r="H24">
-        <v>17.56621196377907</v>
+        <v>12.08587154914324</v>
       </c>
       <c r="I24">
-        <v>28.24079678358515</v>
+        <v>20.30137573804737</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.646747146198676</v>
+        <v>13.06851962878448</v>
       </c>
       <c r="L24">
-        <v>11.12739385981345</v>
+        <v>7.583557111329633</v>
       </c>
       <c r="M24">
-        <v>14.67465696880401</v>
+        <v>11.03245852107963</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.00772169763424</v>
+        <v>13.94971705685609</v>
       </c>
       <c r="C25">
-        <v>8.519732205285282</v>
+        <v>7.846434189864267</v>
       </c>
       <c r="D25">
-        <v>6.526680712639058</v>
+        <v>5.233931666992186</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.17148112474084</v>
+        <v>26.14736855686759</v>
       </c>
       <c r="G25">
-        <v>42.4834774120776</v>
+        <v>36.54872466839652</v>
       </c>
       <c r="H25">
-        <v>17.61072757320622</v>
+        <v>11.97800482545292</v>
       </c>
       <c r="I25">
-        <v>28.31141264967386</v>
+        <v>20.10799637299026</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.348746501432723</v>
+        <v>11.96790340258771</v>
       </c>
       <c r="L25">
-        <v>11.12897009676952</v>
+        <v>7.355093217018021</v>
       </c>
       <c r="M25">
-        <v>14.61029242298449</v>
+        <v>10.39732595122738</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.76234323641883</v>
+        <v>24.45033824547967</v>
       </c>
       <c r="C2">
-        <v>7.594413915720252</v>
+        <v>18.821596422181</v>
       </c>
       <c r="D2">
-        <v>5.191849536761147</v>
+        <v>11.56847006995517</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.36665207710564</v>
+        <v>20.21092033466577</v>
       </c>
       <c r="G2">
-        <v>35.42620652885775</v>
+        <v>17.56049936102691</v>
       </c>
       <c r="H2">
-        <v>11.92500439687472</v>
+        <v>2.102762591624832</v>
       </c>
       <c r="I2">
-        <v>20.01474383603157</v>
+        <v>3.052233914066153</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.708845814754056</v>
       </c>
       <c r="K2">
-        <v>11.09352313209004</v>
+        <v>10.57205105029923</v>
       </c>
       <c r="L2">
-        <v>7.196157648101538</v>
+        <v>9.660618788570464</v>
       </c>
       <c r="M2">
-        <v>9.922365803125642</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.0238961310871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.89621739291694</v>
+        <v>22.86771010448225</v>
       </c>
       <c r="C3">
-        <v>7.418443018694068</v>
+        <v>17.69355442657986</v>
       </c>
       <c r="D3">
-        <v>5.162392630418084</v>
+        <v>10.99171109858263</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.86764542059145</v>
+        <v>19.75713128391359</v>
       </c>
       <c r="G3">
-        <v>34.71372595232345</v>
+        <v>17.2569751572493</v>
       </c>
       <c r="H3">
-        <v>11.904379556617</v>
+        <v>1.879419670839386</v>
       </c>
       <c r="I3">
-        <v>19.97985841015749</v>
+        <v>2.906085979606152</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.769213948406846</v>
       </c>
       <c r="K3">
-        <v>10.46107432645429</v>
+        <v>10.89362712294172</v>
       </c>
       <c r="L3">
-        <v>7.094418705834138</v>
+        <v>9.297549754934051</v>
       </c>
       <c r="M3">
-        <v>9.597695306925694</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.04286396792001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.33372492608565</v>
+        <v>21.83702739811919</v>
       </c>
       <c r="C4">
-        <v>7.307943394047428</v>
+        <v>16.96768625668473</v>
       </c>
       <c r="D4">
-        <v>5.143864371777808</v>
+        <v>10.62300436982032</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.57636487887094</v>
+        <v>19.4824758177108</v>
       </c>
       <c r="G4">
-        <v>34.3002587750264</v>
+        <v>17.08606520011148</v>
       </c>
       <c r="H4">
-        <v>11.89886552684733</v>
+        <v>1.73714947572979</v>
       </c>
       <c r="I4">
-        <v>19.97162432222228</v>
+        <v>2.81414153688411</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.810052296728252</v>
       </c>
       <c r="K4">
-        <v>10.05321349361934</v>
+        <v>11.09567202923051</v>
       </c>
       <c r="L4">
-        <v>7.034952893295003</v>
+        <v>9.066708566946522</v>
       </c>
       <c r="M4">
-        <v>9.397667321448479</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.06322499144742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.09673330356088</v>
+        <v>21.40203607624903</v>
       </c>
       <c r="C5">
-        <v>7.262315247400688</v>
+        <v>16.6774126303972</v>
       </c>
       <c r="D5">
-        <v>5.136206196553599</v>
+        <v>10.47135301901515</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.46150032220316</v>
+        <v>19.36410572961169</v>
       </c>
       <c r="G5">
-        <v>34.13782021746447</v>
+        <v>17.00677096494861</v>
       </c>
       <c r="H5">
-        <v>11.89835808816969</v>
+        <v>1.677744225078235</v>
       </c>
       <c r="I5">
-        <v>19.97146883036578</v>
+        <v>2.776699999569541</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.825579851826044</v>
       </c>
       <c r="K5">
-        <v>9.882130840141034</v>
+        <v>11.1767382025761</v>
       </c>
       <c r="L5">
-        <v>7.011482817667572</v>
+        <v>8.970636650568855</v>
       </c>
       <c r="M5">
-        <v>9.316098671303696</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.06834383876288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.05691007795882</v>
+        <v>21.32873883111093</v>
       </c>
       <c r="C6">
-        <v>7.254703144913516</v>
+        <v>16.64558566186188</v>
       </c>
       <c r="D6">
-        <v>5.134928151202947</v>
+        <v>10.44858173073031</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.44265955422533</v>
+        <v>19.33529083249298</v>
       </c>
       <c r="G6">
-        <v>34.11121314187247</v>
+        <v>16.97735229502281</v>
       </c>
       <c r="H6">
-        <v>11.89837719088318</v>
+        <v>1.667654761879565</v>
       </c>
       <c r="I6">
-        <v>19.97163289597926</v>
+        <v>2.771371101057625</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.825733869325474</v>
       </c>
       <c r="K6">
-        <v>9.853429555927068</v>
+        <v>11.18730225372547</v>
       </c>
       <c r="L6">
-        <v>7.007631892865729</v>
+        <v>8.954465018097739</v>
       </c>
       <c r="M6">
-        <v>9.30255442081458</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.06287422222407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.33056031186086</v>
+        <v>21.83077100601471</v>
       </c>
       <c r="C7">
-        <v>7.307330435237041</v>
+        <v>17.0088939577412</v>
       </c>
       <c r="D7">
-        <v>5.1437615228815</v>
+        <v>10.62799953322414</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.57480021095917</v>
+        <v>19.45587828713333</v>
       </c>
       <c r="G7">
-        <v>34.29804355461697</v>
+        <v>17.04022286388427</v>
       </c>
       <c r="H7">
-        <v>11.89885171684474</v>
+        <v>1.735965667973182</v>
       </c>
       <c r="I7">
-        <v>19.97160942158712</v>
+        <v>2.815815386854819</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.803491087699702</v>
       </c>
       <c r="K7">
-        <v>10.05092589712898</v>
+        <v>11.08866282291179</v>
       </c>
       <c r="L7">
-        <v>7.034633270249575</v>
+        <v>9.065141636966272</v>
       </c>
       <c r="M7">
-        <v>9.396567325235514</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.04570361467892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.47003888451414</v>
+        <v>23.91633725914622</v>
       </c>
       <c r="C8">
-        <v>7.534258345005139</v>
+        <v>18.49511050753743</v>
       </c>
       <c r="D8">
-        <v>5.181786398324276</v>
+        <v>11.38143043489411</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.19148192609061</v>
+        <v>20.02162445164736</v>
       </c>
       <c r="G8">
-        <v>35.17557825272323</v>
+        <v>17.39477603650678</v>
       </c>
       <c r="H8">
-        <v>11.91637395649957</v>
+        <v>2.026339127609429</v>
       </c>
       <c r="I8">
-        <v>19.9999091034176</v>
+        <v>3.00468801309944</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.719912539748851</v>
       </c>
       <c r="K8">
-        <v>10.87952619631328</v>
+        <v>10.67135749054209</v>
       </c>
       <c r="L8">
-        <v>7.16046001191505</v>
+        <v>9.536789328225105</v>
       </c>
       <c r="M8">
-        <v>9.810626766974408</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.00540970205847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.46360177596501</v>
+        <v>27.54049475906015</v>
       </c>
       <c r="C9">
-        <v>7.959143238749261</v>
+        <v>21.07024470403896</v>
       </c>
       <c r="D9">
-        <v>5.25270880086632</v>
+        <v>12.72743985896811</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.51880256683406</v>
+        <v>21.2011348028476</v>
       </c>
       <c r="G9">
-        <v>37.08537308160363</v>
+        <v>18.29200727649686</v>
       </c>
       <c r="H9">
-        <v>12.01007764842641</v>
+        <v>2.556445857788738</v>
       </c>
       <c r="I9">
-        <v>20.16519498602919</v>
+        <v>3.355347880259343</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.599748918344748</v>
       </c>
       <c r="K9">
-        <v>12.34857259637618</v>
+        <v>9.902951466013398</v>
       </c>
       <c r="L9">
-        <v>7.430634970314751</v>
+        <v>10.39650653059092</v>
       </c>
       <c r="M9">
-        <v>10.61261879746577</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.03137238085568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.78502318429068</v>
+        <v>29.91924698667446</v>
       </c>
       <c r="C10">
-        <v>8.25837375529642</v>
+        <v>22.79186064633793</v>
       </c>
       <c r="D10">
-        <v>5.302410575737234</v>
+        <v>13.49061557255463</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.5631693727911</v>
+        <v>21.8719266106861</v>
       </c>
       <c r="G10">
-        <v>38.60123222280191</v>
+        <v>18.83113853428713</v>
       </c>
       <c r="H10">
-        <v>12.11869127045506</v>
+        <v>2.903855715627176</v>
       </c>
       <c r="I10">
-        <v>20.36062707819358</v>
+        <v>3.600515863101882</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.50280219377925</v>
       </c>
       <c r="K10">
-        <v>13.33266314222656</v>
+        <v>9.338811167316035</v>
       </c>
       <c r="L10">
-        <v>7.642855162785052</v>
+        <v>10.80784898468059</v>
       </c>
       <c r="M10">
-        <v>11.19035104969899</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.02079537047695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.35589247974954</v>
+        <v>30.92429111598554</v>
       </c>
       <c r="C11">
-        <v>8.391613988004051</v>
+        <v>23.39402699295958</v>
       </c>
       <c r="D11">
-        <v>5.324460963104137</v>
+        <v>12.53944906159123</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.05271749121425</v>
+        <v>20.45886660890718</v>
       </c>
       <c r="G11">
-        <v>39.31475181071728</v>
+        <v>17.50470900651081</v>
       </c>
       <c r="H11">
-        <v>12.17751308486383</v>
+        <v>3.537344023181316</v>
       </c>
       <c r="I11">
-        <v>20.46711257868695</v>
+        <v>3.680750493666422</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.218190302593938</v>
       </c>
       <c r="K11">
-        <v>13.75984245978272</v>
+        <v>8.96069984320139</v>
       </c>
       <c r="L11">
-        <v>7.742257721340137</v>
+        <v>9.518506066404472</v>
       </c>
       <c r="M11">
-        <v>11.44975777189617</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.37490986858768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.56778568743247</v>
+        <v>31.29051760321619</v>
       </c>
       <c r="C12">
-        <v>8.441651503361882</v>
+        <v>23.49557338364781</v>
       </c>
       <c r="D12">
-        <v>5.332727273693776</v>
+        <v>11.56559244725679</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.24013160453239</v>
+        <v>19.14438998877862</v>
       </c>
       <c r="G12">
-        <v>39.58834380095533</v>
+        <v>16.3065328402964</v>
       </c>
       <c r="H12">
-        <v>12.2012049120622</v>
+        <v>4.601605685067539</v>
       </c>
       <c r="I12">
-        <v>20.51008782282602</v>
+        <v>3.696488001787864</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.007059528680598</v>
       </c>
       <c r="K12">
-        <v>13.91868180076685</v>
+        <v>8.804836954077102</v>
       </c>
       <c r="L12">
-        <v>7.780300598088285</v>
+        <v>8.432491772873009</v>
       </c>
       <c r="M12">
-        <v>11.54743633789815</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.85087479323344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.52234005485926</v>
+        <v>31.19971972824673</v>
       </c>
       <c r="C13">
-        <v>8.430893622372299</v>
+        <v>23.27532213070953</v>
       </c>
       <c r="D13">
-        <v>5.330950750009101</v>
+        <v>10.50078203399375</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>28.1996788541034</v>
+        <v>17.77609394174212</v>
       </c>
       <c r="G13">
-        <v>39.52927036176643</v>
+        <v>15.04904879884347</v>
       </c>
       <c r="H13">
-        <v>12.19603839705646</v>
+        <v>5.804402794660969</v>
       </c>
       <c r="I13">
-        <v>20.50071244376026</v>
+        <v>3.666910799724666</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.830314411356361</v>
       </c>
       <c r="K13">
-        <v>13.88460252971566</v>
+        <v>8.798039573533224</v>
       </c>
       <c r="L13">
-        <v>7.772089689265796</v>
+        <v>7.460269697510155</v>
       </c>
       <c r="M13">
-        <v>11.52642499924374</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.36224361838651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.3734104932666</v>
+        <v>30.92818226397461</v>
       </c>
       <c r="C14">
-        <v>8.39573898239688</v>
+        <v>22.98308984652861</v>
       </c>
       <c r="D14">
-        <v>5.325142733470184</v>
+        <v>9.707567641866722</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>28.06809565621761</v>
+        <v>16.78807905021628</v>
       </c>
       <c r="G14">
-        <v>39.33719251554206</v>
+        <v>14.12714188612164</v>
       </c>
       <c r="H14">
-        <v>12.17943345385443</v>
+        <v>6.695105528928656</v>
       </c>
       <c r="I14">
-        <v>20.47059433115339</v>
+        <v>3.626783313644856</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.722508796095523</v>
       </c>
       <c r="K14">
-        <v>13.77296872006895</v>
+        <v>8.863818725043116</v>
       </c>
       <c r="L14">
-        <v>7.745379544638419</v>
+        <v>6.87873283718248</v>
       </c>
       <c r="M14">
-        <v>11.45780525422354</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.03620063352031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.28163117256199</v>
+        <v>30.76299595268884</v>
       </c>
       <c r="C15">
-        <v>8.374151315517398</v>
+        <v>22.85601672415861</v>
       </c>
       <c r="D15">
-        <v>5.321574159527724</v>
+        <v>9.495292814418342</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.98776065635963</v>
+        <v>16.53061234062788</v>
       </c>
       <c r="G15">
-        <v>39.21998059572908</v>
+        <v>13.8784094626596</v>
       </c>
       <c r="H15">
-        <v>12.16944892148721</v>
+        <v>6.898423123840361</v>
       </c>
       <c r="I15">
-        <v>20.45249508211617</v>
+        <v>3.608131798629145</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.70205771425232</v>
       </c>
       <c r="K15">
-        <v>13.70420975511149</v>
+        <v>8.90676012032889</v>
       </c>
       <c r="L15">
-        <v>7.729070780645199</v>
+        <v>6.751421322900193</v>
       </c>
       <c r="M15">
-        <v>11.41569995966221</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>9.960625156857098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.74711249634213</v>
+        <v>29.80770981845712</v>
       </c>
       <c r="C16">
-        <v>8.249607852124603</v>
+        <v>22.20395137571386</v>
       </c>
       <c r="D16">
-        <v>5.300957997487625</v>
+        <v>9.329467038598699</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.53146306545568</v>
+        <v>16.47257790415113</v>
       </c>
       <c r="G16">
-        <v>38.55507973599052</v>
+        <v>13.82761286458465</v>
       </c>
       <c r="H16">
-        <v>12.1150419705354</v>
+        <v>6.624485167523416</v>
       </c>
       <c r="I16">
-        <v>20.35403232547057</v>
+        <v>3.511426092283783</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.777690390812624</v>
       </c>
       <c r="K16">
-        <v>13.3043353960162</v>
+        <v>9.14054635120657</v>
       </c>
       <c r="L16">
-        <v>7.636415665682781</v>
+        <v>6.73458383488244</v>
       </c>
       <c r="M16">
-        <v>11.17332399587017</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.05474436962102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.41150151253075</v>
+        <v>29.20938199497581</v>
       </c>
       <c r="C17">
-        <v>8.172463079790766</v>
+        <v>21.857879230236</v>
       </c>
       <c r="D17">
-        <v>5.288165082250027</v>
+        <v>9.638182147000887</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.25520731389077</v>
+        <v>16.95865454590833</v>
       </c>
       <c r="G17">
-        <v>38.15328204688296</v>
+        <v>14.28953912876385</v>
       </c>
       <c r="H17">
-        <v>12.08412108418056</v>
+        <v>5.891004023826577</v>
       </c>
       <c r="I17">
-        <v>20.29821945049967</v>
+        <v>3.458507133048336</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.891796879287495</v>
       </c>
       <c r="K17">
-        <v>13.05379105619543</v>
+        <v>9.28405825947733</v>
       </c>
       <c r="L17">
-        <v>7.580300250309303</v>
+        <v>7.011275210000361</v>
       </c>
       <c r="M17">
-        <v>11.02371309734098</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.29805464106665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.21561528103725</v>
+        <v>28.86502069321491</v>
       </c>
       <c r="C18">
-        <v>8.127820247586786</v>
+        <v>21.71360219726253</v>
       </c>
       <c r="D18">
-        <v>5.280754495286233</v>
+        <v>10.39561315158912</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.09767578514088</v>
+        <v>17.98886145603564</v>
       </c>
       <c r="G18">
-        <v>37.92443497138501</v>
+        <v>15.26711327792307</v>
       </c>
       <c r="H18">
-        <v>12.06721835784455</v>
+        <v>4.731561905310609</v>
       </c>
       <c r="I18">
-        <v>20.26776493734204</v>
+        <v>3.435787738348879</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.057196391769699</v>
       </c>
       <c r="K18">
-        <v>12.90775428457572</v>
+        <v>9.383635369249822</v>
       </c>
       <c r="L18">
-        <v>7.54829415576104</v>
+        <v>7.686663127083521</v>
       </c>
       <c r="M18">
-        <v>10.93734329047101</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10.70968934965759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.14879978095839</v>
+        <v>28.75564822304235</v>
       </c>
       <c r="C19">
-        <v>8.112658529565673</v>
+        <v>21.81322290922646</v>
       </c>
       <c r="D19">
-        <v>5.278236491602073</v>
+        <v>11.46805929200098</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.0445740443613</v>
+        <v>19.34804533213502</v>
       </c>
       <c r="G19">
-        <v>37.84734039114031</v>
+        <v>16.50797765114347</v>
       </c>
       <c r="H19">
-        <v>12.06164496404575</v>
+        <v>3.505702202748632</v>
       </c>
       <c r="I19">
-        <v>20.25773278702413</v>
+        <v>3.447924210180878</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.243715877411412</v>
       </c>
       <c r="K19">
-        <v>12.85797666885004</v>
+        <v>9.458784261480094</v>
       </c>
       <c r="L19">
-        <v>7.537504147615916</v>
+        <v>8.751639524499579</v>
       </c>
       <c r="M19">
-        <v>10.90804752627738</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.20336775804629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.44752253160303</v>
+        <v>29.31243792192402</v>
       </c>
       <c r="C20">
-        <v>8.180703375546649</v>
+        <v>22.46064116494847</v>
       </c>
       <c r="D20">
-        <v>5.289532361155366</v>
+        <v>13.30531389548514</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.28447445996693</v>
+        <v>21.61697202409715</v>
       </c>
       <c r="G20">
-        <v>38.19582094544111</v>
+        <v>18.55066681020934</v>
       </c>
       <c r="H20">
-        <v>12.08732090674771</v>
+        <v>2.811194369762554</v>
       </c>
       <c r="I20">
-        <v>20.30398941732136</v>
+        <v>3.54449262683446</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.504625122293731</v>
       </c>
       <c r="K20">
-        <v>13.08066157179195</v>
+        <v>9.460699409591385</v>
       </c>
       <c r="L20">
-        <v>7.586245965500321</v>
+        <v>10.6932128011536</v>
       </c>
       <c r="M20">
-        <v>11.03967279477987</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.96352784292884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.41727039046508</v>
+        <v>31.05282817083429</v>
       </c>
       <c r="C21">
-        <v>8.40607609768448</v>
+        <v>23.73595463606229</v>
       </c>
       <c r="D21">
-        <v>5.326850986118176</v>
+        <v>14.09598629787146</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.10668998621637</v>
+        <v>22.45426640596914</v>
       </c>
       <c r="G21">
-        <v>39.39351853123812</v>
+        <v>19.29347256174515</v>
       </c>
       <c r="H21">
-        <v>12.18427175230374</v>
+        <v>3.101360294283275</v>
       </c>
       <c r="I21">
-        <v>20.47936780665569</v>
+        <v>3.734496447125514</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.484333060185747</v>
       </c>
       <c r="K21">
-        <v>13.8058374246658</v>
+        <v>9.063670185378212</v>
       </c>
       <c r="L21">
-        <v>7.753214147725564</v>
+        <v>11.27023615167997</v>
       </c>
       <c r="M21">
-        <v>11.4779759968831</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.09699022048024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.02612799417243</v>
+        <v>32.13927140879514</v>
       </c>
       <c r="C22">
-        <v>8.550936583689488</v>
+        <v>24.48531363806839</v>
       </c>
       <c r="D22">
-        <v>5.350751535325836</v>
+        <v>14.51307530682509</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.65588991976413</v>
+        <v>22.92860205682058</v>
       </c>
       <c r="G22">
-        <v>40.19607548235783</v>
+        <v>19.75079233991494</v>
       </c>
       <c r="H22">
-        <v>12.2559258668822</v>
+        <v>3.27711308228341</v>
       </c>
       <c r="I22">
-        <v>20.60950018649642</v>
+        <v>3.851994023886105</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.470788078361196</v>
       </c>
       <c r="K22">
-        <v>14.26275280775872</v>
+        <v>8.810192701612657</v>
       </c>
       <c r="L22">
-        <v>7.864672602439294</v>
+        <v>11.5478266273524</v>
       </c>
       <c r="M22">
-        <v>11.76253682146994</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.18015766538598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.70342706599984</v>
+        <v>31.56434199546031</v>
       </c>
       <c r="C23">
-        <v>8.473844715118901</v>
+        <v>24.04863255004087</v>
       </c>
       <c r="D23">
-        <v>5.338041213478923</v>
+        <v>14.28549511226238</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.36170161742266</v>
+        <v>22.70053276627228</v>
       </c>
       <c r="G23">
-        <v>39.76593651722183</v>
+        <v>19.55099686736166</v>
       </c>
       <c r="H23">
-        <v>12.21690283130885</v>
+        <v>3.183967136362495</v>
       </c>
       <c r="I23">
-        <v>20.53858588192866</v>
+        <v>3.786370532706542</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.485486354296167</v>
       </c>
       <c r="K23">
-        <v>14.02043739937645</v>
+        <v>8.954642305851422</v>
       </c>
       <c r="L23">
-        <v>7.804974570954287</v>
+        <v>11.40065251729095</v>
       </c>
       <c r="M23">
-        <v>11.61034691486941</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.15463238910045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.43124658830546</v>
+        <v>29.28528768846747</v>
       </c>
       <c r="C24">
-        <v>8.176978844793824</v>
+        <v>22.3937568502926</v>
       </c>
       <c r="D24">
-        <v>5.288914387823416</v>
+        <v>13.40319688317685</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.27123875656524</v>
+        <v>21.79947916924954</v>
       </c>
       <c r="G24">
-        <v>38.17658240343156</v>
+        <v>18.75241027911986</v>
       </c>
       <c r="H24">
-        <v>12.08587154914324</v>
+        <v>2.823055987500394</v>
       </c>
       <c r="I24">
-        <v>20.30137573804737</v>
+        <v>3.539326333422433</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.538609062471227</v>
       </c>
       <c r="K24">
-        <v>13.06851962878448</v>
+        <v>9.493820588436051</v>
       </c>
       <c r="L24">
-        <v>7.583557111329633</v>
+        <v>10.82594242057334</v>
       </c>
       <c r="M24">
-        <v>11.03245852107963</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,52 +1634,64 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.04964491556537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.94971705685609</v>
+        <v>26.60912619995269</v>
       </c>
       <c r="C25">
-        <v>7.846434189864267</v>
+        <v>20.47150795074768</v>
       </c>
       <c r="D25">
-        <v>5.233931666992186</v>
+        <v>12.38765659739537</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.14736855686759</v>
+        <v>20.83795120569184</v>
       </c>
       <c r="G25">
-        <v>36.54872466839652</v>
+        <v>17.96003104956018</v>
       </c>
       <c r="H25">
-        <v>11.97800482545292</v>
+        <v>2.416621412434588</v>
       </c>
       <c r="I25">
-        <v>20.10799637299026</v>
+        <v>3.26623300902372</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.616423387832873</v>
       </c>
       <c r="K25">
-        <v>11.96790340258771</v>
+        <v>10.09277845125828</v>
       </c>
       <c r="L25">
-        <v>7.355093217018021</v>
+        <v>10.17092435506833</v>
       </c>
       <c r="M25">
-        <v>10.39732595122738</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.98450795495376</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.45033824547967</v>
+        <v>24.45574327762467</v>
       </c>
       <c r="C2">
-        <v>18.821596422181</v>
+        <v>18.80493592944091</v>
       </c>
       <c r="D2">
-        <v>11.56847006995517</v>
+        <v>11.56577680384567</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.21092033466577</v>
+        <v>20.20684339802521</v>
       </c>
       <c r="G2">
-        <v>17.56049936102691</v>
+        <v>16.81262589485485</v>
       </c>
       <c r="H2">
-        <v>2.102762591624832</v>
+        <v>2.090912887752718</v>
       </c>
       <c r="I2">
-        <v>3.052233914066153</v>
+        <v>3.064373582683638</v>
       </c>
       <c r="J2">
-        <v>7.708845814754056</v>
+        <v>8.323016993339023</v>
       </c>
       <c r="K2">
-        <v>10.57205105029923</v>
+        <v>10.53225429181101</v>
       </c>
       <c r="L2">
-        <v>9.660618788570464</v>
+        <v>9.7763804144566</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.780730695843926</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>9.652419018164636</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.0238961310871</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.03694390348782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.86771010448225</v>
+        <v>22.8808609194746</v>
       </c>
       <c r="C3">
-        <v>17.69355442657986</v>
+        <v>17.59543099064615</v>
       </c>
       <c r="D3">
-        <v>10.99171109858263</v>
+        <v>10.98451964148884</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.75713128391359</v>
+        <v>19.77776849005435</v>
       </c>
       <c r="G3">
-        <v>17.2569751572493</v>
+        <v>16.53823158249912</v>
       </c>
       <c r="H3">
-        <v>1.879419670839386</v>
+        <v>1.874808146095411</v>
       </c>
       <c r="I3">
-        <v>2.906085979606152</v>
+        <v>2.933756412216596</v>
       </c>
       <c r="J3">
-        <v>7.769213948406846</v>
+        <v>8.353311345375454</v>
       </c>
       <c r="K3">
-        <v>10.89362712294172</v>
+        <v>10.8335029402216</v>
       </c>
       <c r="L3">
-        <v>9.297549754934051</v>
+        <v>9.988251140952686</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.081169132636984</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9.294284999228083</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.04286396792001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.0643970409332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.83702739811919</v>
+        <v>21.85524389374984</v>
       </c>
       <c r="C4">
-        <v>16.96768625668473</v>
+        <v>16.81605785281533</v>
       </c>
       <c r="D4">
-        <v>10.62300436982032</v>
+        <v>10.61319582732786</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.4824758177108</v>
+        <v>19.51680112298525</v>
       </c>
       <c r="G4">
-        <v>17.08606520011148</v>
+        <v>16.38578297680182</v>
       </c>
       <c r="H4">
-        <v>1.73714947572979</v>
+        <v>1.737089595415171</v>
       </c>
       <c r="I4">
-        <v>2.81414153688411</v>
+        <v>2.85172381033984</v>
       </c>
       <c r="J4">
-        <v>7.810052296728252</v>
+        <v>8.373603765418286</v>
       </c>
       <c r="K4">
-        <v>11.09567202923051</v>
+        <v>11.02244269112114</v>
       </c>
       <c r="L4">
-        <v>9.066708566946522</v>
+        <v>10.12761656494527</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.281331700253702</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>9.066665519986666</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.06322499144742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.08824025909876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.40203607624903</v>
+        <v>21.42240511881802</v>
       </c>
       <c r="C5">
-        <v>16.6774126303972</v>
+        <v>16.50289493906546</v>
       </c>
       <c r="D5">
-        <v>10.47135301901515</v>
+        <v>10.46047305933759</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.36410572961169</v>
+        <v>19.4037828146568</v>
       </c>
       <c r="G5">
-        <v>17.00677096494861</v>
+        <v>16.31396195893693</v>
       </c>
       <c r="H5">
-        <v>1.677744225078235</v>
+        <v>1.67956855241871</v>
       </c>
       <c r="I5">
-        <v>2.776699999569541</v>
+        <v>2.818664384063899</v>
       </c>
       <c r="J5">
-        <v>7.825579851826044</v>
+        <v>8.380337005577278</v>
       </c>
       <c r="K5">
-        <v>11.1767382025761</v>
+        <v>11.09799832759261</v>
       </c>
       <c r="L5">
-        <v>8.970636650568855</v>
+        <v>10.18340485768865</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.366763240993153</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.971956754144548</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.06834383876288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.09446023923901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.32873883111093</v>
+        <v>21.34946811961011</v>
       </c>
       <c r="C6">
-        <v>16.64558566186188</v>
+        <v>16.46695130583652</v>
       </c>
       <c r="D6">
-        <v>10.44858173073031</v>
+        <v>10.43746131435804</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.33529083249298</v>
+        <v>19.3760404993365</v>
       </c>
       <c r="G6">
-        <v>16.97735229502281</v>
+        <v>16.28562348389445</v>
       </c>
       <c r="H6">
-        <v>1.667654761879565</v>
+        <v>1.669794991877781</v>
       </c>
       <c r="I6">
-        <v>2.771371101057625</v>
+        <v>2.814408641537032</v>
       </c>
       <c r="J6">
-        <v>7.825733869325474</v>
+        <v>8.379098038630961</v>
       </c>
       <c r="K6">
-        <v>11.18730225372547</v>
+        <v>11.10762079673314</v>
       </c>
       <c r="L6">
-        <v>8.954465018097739</v>
+        <v>10.1887987860382</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.381288374714038</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.956015417456072</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.06287422222407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.08927681461304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.83077100601471</v>
+        <v>21.84878824027014</v>
       </c>
       <c r="C7">
-        <v>17.0088939577412</v>
+        <v>16.8502834695198</v>
       </c>
       <c r="D7">
-        <v>10.62799953322414</v>
+        <v>10.62199115666724</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.45587828713333</v>
+        <v>19.47645619914099</v>
       </c>
       <c r="G7">
-        <v>17.04022286388427</v>
+        <v>16.42589242943632</v>
       </c>
       <c r="H7">
-        <v>1.735965667973182</v>
+        <v>1.735506897909609</v>
       </c>
       <c r="I7">
-        <v>2.815815386854819</v>
+        <v>2.853883755256714</v>
       </c>
       <c r="J7">
-        <v>7.803491087699702</v>
+        <v>8.333707195091005</v>
       </c>
       <c r="K7">
-        <v>11.08866282291179</v>
+        <v>11.01294679779132</v>
       </c>
       <c r="L7">
-        <v>9.065141636966272</v>
+        <v>10.11456001161821</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.282390038360382</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>9.064811815871172</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.04570361467892</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.06126698018542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.91633725914622</v>
+        <v>23.92368992209911</v>
       </c>
       <c r="C8">
-        <v>18.49511050753743</v>
+        <v>18.43182506949193</v>
       </c>
       <c r="D8">
-        <v>11.38143043489411</v>
+        <v>11.38945913648804</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.02162445164736</v>
+        <v>19.98069861841707</v>
       </c>
       <c r="G8">
-        <v>17.39477603650678</v>
+        <v>16.93857213140798</v>
       </c>
       <c r="H8">
-        <v>2.026339127609429</v>
+        <v>2.015653485610206</v>
       </c>
       <c r="I8">
-        <v>3.00468801309944</v>
+        <v>3.021821106049209</v>
       </c>
       <c r="J8">
-        <v>7.719912539748851</v>
+        <v>8.215160274780697</v>
       </c>
       <c r="K8">
-        <v>10.67135749054209</v>
+        <v>10.61740084979066</v>
       </c>
       <c r="L8">
-        <v>9.536789328225105</v>
+        <v>9.827108139805397</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.876211808961981</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>9.529339141364842</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.00540970205847</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.98981835749557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.54049475906015</v>
+        <v>27.52970165388548</v>
       </c>
       <c r="C9">
-        <v>21.07024470403896</v>
+        <v>21.18923457316741</v>
       </c>
       <c r="D9">
-        <v>12.72743985896811</v>
+        <v>12.74919271199904</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.2011348028476</v>
+        <v>21.08090767466538</v>
       </c>
       <c r="G9">
-        <v>18.29200727649686</v>
+        <v>17.83057542867245</v>
       </c>
       <c r="H9">
-        <v>2.556445857788738</v>
+        <v>2.528033002163926</v>
       </c>
       <c r="I9">
-        <v>3.355347880259343</v>
+        <v>3.334568390799511</v>
       </c>
       <c r="J9">
-        <v>7.599748918344748</v>
+        <v>8.126349412180147</v>
       </c>
       <c r="K9">
-        <v>9.902951466013398</v>
+        <v>9.894542578044998</v>
       </c>
       <c r="L9">
-        <v>10.39650653059092</v>
+        <v>9.36575454873201</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.217115555473121</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>10.37765200758678</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.03137238085568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.97548366041048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.91924698667446</v>
+        <v>29.89505668284955</v>
       </c>
       <c r="C10">
-        <v>22.79186064633793</v>
+        <v>22.99016186608633</v>
       </c>
       <c r="D10">
-        <v>13.49061557255463</v>
+        <v>13.53902955748752</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.8719266106861</v>
+        <v>21.62239976606297</v>
       </c>
       <c r="G10">
-        <v>18.83113853428713</v>
+        <v>18.83572927487621</v>
       </c>
       <c r="H10">
-        <v>2.903855715627176</v>
+        <v>2.861249230312657</v>
       </c>
       <c r="I10">
-        <v>3.600515863101882</v>
+        <v>3.552479630117399</v>
       </c>
       <c r="J10">
-        <v>7.50280219377925</v>
+        <v>7.861525045325996</v>
       </c>
       <c r="K10">
-        <v>9.338811167316035</v>
+        <v>9.353776886997437</v>
       </c>
       <c r="L10">
-        <v>10.80784898468059</v>
+        <v>9.0600516608616</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.798368836861805</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.78008874087022</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.02079537047695</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.87674380051835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.92429111598554</v>
+        <v>30.89438191143383</v>
       </c>
       <c r="C11">
-        <v>23.39402699295958</v>
+        <v>23.48701524701272</v>
       </c>
       <c r="D11">
-        <v>12.53944906159123</v>
+        <v>12.61352116489482</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.45886660890718</v>
+        <v>20.09747376795915</v>
       </c>
       <c r="G11">
-        <v>17.50470900651081</v>
+        <v>18.57943334641298</v>
       </c>
       <c r="H11">
-        <v>3.537344023181316</v>
+        <v>3.4970167364325</v>
       </c>
       <c r="I11">
-        <v>3.680750493666422</v>
+        <v>3.622457350600493</v>
       </c>
       <c r="J11">
-        <v>7.218190302593938</v>
+        <v>7.299131276232123</v>
       </c>
       <c r="K11">
-        <v>8.96069984320139</v>
+        <v>9.018550309310781</v>
       </c>
       <c r="L11">
-        <v>9.518506066404472</v>
+        <v>8.897733141599719</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.475758798843816</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9.483490041475287</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.37490986858768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.15429194949223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.29051760321619</v>
+        <v>31.2589950533129</v>
       </c>
       <c r="C12">
-        <v>23.49557338364781</v>
+        <v>23.49992338550712</v>
       </c>
       <c r="D12">
-        <v>11.56559244725679</v>
+        <v>11.64328360851915</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.14438998877862</v>
+        <v>18.76479348283932</v>
       </c>
       <c r="G12">
-        <v>16.3065328402964</v>
+        <v>17.90511755959294</v>
       </c>
       <c r="H12">
-        <v>4.601605685067539</v>
+        <v>4.570030256439141</v>
       </c>
       <c r="I12">
-        <v>3.696488001787864</v>
+        <v>3.634521568580965</v>
       </c>
       <c r="J12">
-        <v>7.007059528680598</v>
+        <v>7.036375216568774</v>
       </c>
       <c r="K12">
-        <v>8.804836954077102</v>
+        <v>8.900785784535808</v>
       </c>
       <c r="L12">
-        <v>8.432491772873009</v>
+        <v>8.860444854076455</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.32733703617982</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.393119012035855</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10.85087479323344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.62265822140603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.19971972824673</v>
+        <v>31.16990088562602</v>
       </c>
       <c r="C13">
-        <v>23.27532213070953</v>
+        <v>23.20648985355988</v>
       </c>
       <c r="D13">
-        <v>10.50078203399375</v>
+        <v>10.5576199738415</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.77609394174212</v>
+        <v>17.47936918561835</v>
       </c>
       <c r="G13">
-        <v>15.04904879884347</v>
+        <v>16.57820367169361</v>
       </c>
       <c r="H13">
-        <v>5.804402794660969</v>
+        <v>5.781184952346255</v>
       </c>
       <c r="I13">
-        <v>3.666910799724666</v>
+        <v>3.608098751111616</v>
       </c>
       <c r="J13">
-        <v>6.830314411356361</v>
+        <v>6.971367294754437</v>
       </c>
       <c r="K13">
-        <v>8.798039573533224</v>
+        <v>8.919760460592533</v>
       </c>
       <c r="L13">
-        <v>7.460269697510155</v>
+        <v>8.88073500311218</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.308671234191961</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.41945408827606</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.36224361838651</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.19989820910552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.92818226397461</v>
+        <v>30.90100724257978</v>
       </c>
       <c r="C14">
-        <v>22.98308984652861</v>
+        <v>22.86829719329339</v>
       </c>
       <c r="D14">
-        <v>9.707567641866722</v>
+        <v>9.739354264058793</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.78807905021628</v>
+        <v>16.59137639628029</v>
       </c>
       <c r="G14">
-        <v>14.12714188612164</v>
+        <v>15.34440829306084</v>
       </c>
       <c r="H14">
-        <v>6.695105528928656</v>
+        <v>6.676834119789554</v>
       </c>
       <c r="I14">
-        <v>3.626783313644856</v>
+        <v>3.573512477979468</v>
       </c>
       <c r="J14">
-        <v>6.722508796095523</v>
+        <v>6.99434616747657</v>
       </c>
       <c r="K14">
-        <v>8.863818725043116</v>
+        <v>8.99083336689471</v>
       </c>
       <c r="L14">
-        <v>6.87873283718248</v>
+        <v>8.913478964050718</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.361025396349242</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.838670940789897</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.03620063352031</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>9.94844226599764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.76299595268884</v>
+        <v>30.73716883317896</v>
       </c>
       <c r="C15">
-        <v>22.85601672415861</v>
+        <v>22.73203902927559</v>
       </c>
       <c r="D15">
-        <v>9.495292814418342</v>
+        <v>9.516754697825219</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.53061234062788</v>
+        <v>16.37572832830915</v>
       </c>
       <c r="G15">
-        <v>13.8784094626596</v>
+        <v>14.90861983329249</v>
       </c>
       <c r="H15">
-        <v>6.898423123840361</v>
+        <v>6.881532502105762</v>
       </c>
       <c r="I15">
-        <v>3.608131798629145</v>
+        <v>3.55811861995588</v>
       </c>
       <c r="J15">
-        <v>6.70205771425232</v>
+        <v>7.029127845818128</v>
       </c>
       <c r="K15">
-        <v>8.90676012032889</v>
+        <v>9.030689333254587</v>
       </c>
       <c r="L15">
-        <v>6.751421322900193</v>
+        <v>8.927550578139794</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.399169510268949</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.712387263589556</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9.960625156857098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.902904088077609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.80770981845712</v>
+        <v>29.78850938744952</v>
       </c>
       <c r="C16">
-        <v>22.20395137571386</v>
+        <v>22.09755554805696</v>
       </c>
       <c r="D16">
-        <v>9.329467038598699</v>
+        <v>9.316938482224501</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>16.47257790415113</v>
+        <v>16.4601923715933</v>
       </c>
       <c r="G16">
-        <v>13.82761286458465</v>
+        <v>13.95692901189225</v>
       </c>
       <c r="H16">
-        <v>6.624485167523416</v>
+        <v>6.610882817085955</v>
       </c>
       <c r="I16">
-        <v>3.511426092283783</v>
+        <v>3.475768127840442</v>
       </c>
       <c r="J16">
-        <v>6.777690390812624</v>
+        <v>7.321786371012748</v>
       </c>
       <c r="K16">
-        <v>9.14054635120657</v>
+        <v>9.233919327964232</v>
       </c>
       <c r="L16">
-        <v>6.73458383488244</v>
+        <v>8.985718556629038</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.620336171455572</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.702640282900798</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.05474436962102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.09381406821172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.20938199497581</v>
+        <v>29.19367609310532</v>
       </c>
       <c r="C17">
-        <v>21.857879230236</v>
+        <v>21.78354893178227</v>
       </c>
       <c r="D17">
-        <v>9.638182147000887</v>
+        <v>9.616824447488675</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.95865454590833</v>
+        <v>16.98751891811787</v>
       </c>
       <c r="G17">
-        <v>14.28953912876385</v>
+        <v>14.02248687390675</v>
       </c>
       <c r="H17">
-        <v>5.891004023826577</v>
+        <v>5.877813322505528</v>
       </c>
       <c r="I17">
-        <v>3.458507133048336</v>
+        <v>3.430576768286847</v>
       </c>
       <c r="J17">
-        <v>6.891796879287495</v>
+        <v>7.527125983632788</v>
       </c>
       <c r="K17">
-        <v>9.28405825947733</v>
+        <v>9.360214576446944</v>
       </c>
       <c r="L17">
-        <v>7.011275210000361</v>
+        <v>9.029817190109522</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.755194034116676</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.983630831383701</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.29805464106665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.36263424831251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.86502069321491</v>
+        <v>28.85070550797985</v>
       </c>
       <c r="C18">
-        <v>21.71360219726253</v>
+        <v>21.69823478600395</v>
       </c>
       <c r="D18">
-        <v>10.39561315158912</v>
+        <v>10.37914394722159</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.98886145603564</v>
+        <v>18.0040371561736</v>
       </c>
       <c r="G18">
-        <v>15.26711327792307</v>
+        <v>14.80692386636809</v>
       </c>
       <c r="H18">
-        <v>4.731561905310609</v>
+        <v>4.715886610948884</v>
       </c>
       <c r="I18">
-        <v>3.435787738348879</v>
+        <v>3.410041919757666</v>
       </c>
       <c r="J18">
-        <v>7.057196391769699</v>
+        <v>7.718378492231068</v>
       </c>
       <c r="K18">
-        <v>9.383635369249822</v>
+        <v>9.447436154546939</v>
       </c>
       <c r="L18">
-        <v>7.686663127083521</v>
+        <v>9.073502576378905</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.839955468927661</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.66184564915255</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10.70968934965759</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.7618785270985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.75564822304235</v>
+        <v>28.74092746459847</v>
       </c>
       <c r="C19">
-        <v>21.81322290922646</v>
+        <v>21.87593334206829</v>
       </c>
       <c r="D19">
-        <v>11.46805929200098</v>
+        <v>11.4641268266883</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.34804533213502</v>
+        <v>19.31726612064057</v>
       </c>
       <c r="G19">
-        <v>16.50797765114347</v>
+        <v>15.95306278399524</v>
       </c>
       <c r="H19">
-        <v>3.505702202748632</v>
+        <v>3.48334822355123</v>
       </c>
       <c r="I19">
-        <v>3.447924210180878</v>
+        <v>3.421947280216632</v>
       </c>
       <c r="J19">
-        <v>7.243715877411412</v>
+        <v>7.894504790642143</v>
       </c>
       <c r="K19">
-        <v>9.458784261480094</v>
+        <v>9.508623736114233</v>
       </c>
       <c r="L19">
-        <v>8.751639524499579</v>
+        <v>9.117723973053012</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.893941992341443</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.728414205623004</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.20336775804629</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.2208976096888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.31243792192402</v>
+        <v>29.29233017504298</v>
       </c>
       <c r="C20">
-        <v>22.46064116494847</v>
+        <v>22.65280701363979</v>
       </c>
       <c r="D20">
-        <v>13.30531389548514</v>
+        <v>13.3346715786978</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.61697202409715</v>
+        <v>21.45001637217182</v>
       </c>
       <c r="G20">
-        <v>18.55066681020934</v>
+        <v>18.15136273618245</v>
       </c>
       <c r="H20">
-        <v>2.811194369762554</v>
+        <v>2.773480322093072</v>
       </c>
       <c r="I20">
-        <v>3.54449262683446</v>
+        <v>3.50776140332686</v>
       </c>
       <c r="J20">
-        <v>7.504625122293731</v>
+        <v>8.023475775077573</v>
       </c>
       <c r="K20">
-        <v>9.460699409591385</v>
+        <v>9.480548018792316</v>
       </c>
       <c r="L20">
-        <v>10.6932128011536</v>
+        <v>9.126873414538212</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.888040813640764</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.66852267166191</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.96352784292884</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.88030446916044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.05282817083429</v>
+        <v>31.0193929620532</v>
       </c>
       <c r="C21">
-        <v>23.73595463606229</v>
+        <v>23.91762582066887</v>
       </c>
       <c r="D21">
-        <v>14.09598629787146</v>
+        <v>14.20866677815012</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.45426640596914</v>
+        <v>21.93464614713601</v>
       </c>
       <c r="G21">
-        <v>19.29347256174515</v>
+        <v>20.71281826210335</v>
       </c>
       <c r="H21">
-        <v>3.101360294283275</v>
+        <v>3.046599976386859</v>
       </c>
       <c r="I21">
-        <v>3.734496447125514</v>
+        <v>3.670281541409441</v>
       </c>
       <c r="J21">
-        <v>7.484333060185747</v>
+        <v>7.329922049819766</v>
       </c>
       <c r="K21">
-        <v>9.063670185378212</v>
+        <v>9.057399441075285</v>
       </c>
       <c r="L21">
-        <v>11.27023615167997</v>
+        <v>8.912694390615849</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.570590649318762</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.23543009375993</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.09699022048024</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.7496533058159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.13927140879514</v>
+        <v>32.09731632225296</v>
       </c>
       <c r="C22">
-        <v>24.48531363806839</v>
+        <v>24.6499381281679</v>
       </c>
       <c r="D22">
-        <v>14.51307530682509</v>
+        <v>14.68217322390963</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.92860205682058</v>
+        <v>22.16632324133717</v>
       </c>
       <c r="G22">
-        <v>19.75079233991494</v>
+        <v>22.44947327022761</v>
       </c>
       <c r="H22">
-        <v>3.27711308228341</v>
+        <v>3.211613202598478</v>
       </c>
       <c r="I22">
-        <v>3.851994023886105</v>
+        <v>3.769256221185314</v>
       </c>
       <c r="J22">
-        <v>7.470788078361196</v>
+        <v>6.921306945879147</v>
       </c>
       <c r="K22">
-        <v>8.810192701612657</v>
+        <v>8.784062845819689</v>
       </c>
       <c r="L22">
-        <v>11.5478266273524</v>
+        <v>8.790003406892582</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4.374926730256332</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.50670309384458</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.18015766538598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.64440180499265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.56434199546031</v>
+        <v>31.52726123373635</v>
       </c>
       <c r="C23">
-        <v>24.04863255004087</v>
+        <v>24.23467383141627</v>
       </c>
       <c r="D23">
-        <v>14.28549511226238</v>
+        <v>14.41637362869526</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.70053276627228</v>
+        <v>22.10017572349507</v>
       </c>
       <c r="G23">
-        <v>19.55099686736166</v>
+        <v>21.36258771816324</v>
       </c>
       <c r="H23">
-        <v>3.183967136362495</v>
+        <v>3.124860200689179</v>
       </c>
       <c r="I23">
-        <v>3.786370532706542</v>
+        <v>3.712991472357697</v>
       </c>
       <c r="J23">
-        <v>7.485486354296167</v>
+        <v>7.194793519735968</v>
       </c>
       <c r="K23">
-        <v>8.954642305851422</v>
+        <v>8.941274080537037</v>
       </c>
       <c r="L23">
-        <v>11.40065251729095</v>
+        <v>8.858195064123207</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>4.495709869991183</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.36330126868466</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.15463238910045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.74442517963619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.28528768846747</v>
+        <v>29.26519877546373</v>
       </c>
       <c r="C24">
-        <v>22.3937568502926</v>
+        <v>22.59520577867842</v>
       </c>
       <c r="D24">
-        <v>13.40319688317685</v>
+        <v>13.43356879970831</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.79947916924954</v>
+        <v>21.62842187344392</v>
       </c>
       <c r="G24">
-        <v>18.75241027911986</v>
+        <v>18.33026702543366</v>
       </c>
       <c r="H24">
-        <v>2.823055987500394</v>
+        <v>2.78530040022419</v>
       </c>
       <c r="I24">
-        <v>3.539326333422433</v>
+        <v>3.50074362410726</v>
       </c>
       <c r="J24">
-        <v>7.538609062471227</v>
+        <v>8.058775696726265</v>
       </c>
       <c r="K24">
-        <v>9.493820588436051</v>
+        <v>9.508316863764184</v>
       </c>
       <c r="L24">
-        <v>10.82594242057334</v>
+        <v>9.144257712875342</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.915850070428194</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.80143210448318</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.04964491556537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.96264372957607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.60912619995269</v>
+        <v>26.60334684876497</v>
       </c>
       <c r="C25">
-        <v>20.47150795074768</v>
+        <v>20.55003765659529</v>
       </c>
       <c r="D25">
-        <v>12.38765659739537</v>
+        <v>12.40045335701744</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.83795120569184</v>
+        <v>20.76048468643029</v>
       </c>
       <c r="G25">
-        <v>17.96003104956018</v>
+        <v>17.3825569599207</v>
       </c>
       <c r="H25">
-        <v>2.416621412434588</v>
+        <v>2.393456879429698</v>
       </c>
       <c r="I25">
-        <v>3.26623300902372</v>
+        <v>3.257557591753703</v>
       </c>
       <c r="J25">
-        <v>7.616423387832873</v>
+        <v>8.184240956666889</v>
       </c>
       <c r="K25">
-        <v>10.09277845125828</v>
+        <v>10.07718078730487</v>
       </c>
       <c r="L25">
-        <v>10.17092435506833</v>
+        <v>9.474074958353198</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.372673356436524</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>10.1553641412941</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11.98450795495376</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.95612022208154</v>
       </c>
     </row>
   </sheetData>
